--- a/DatHM2.xlsx
+++ b/DatHM2.xlsx
@@ -1,29 +1,30 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21629"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\taame510\Documents\leafy-green\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shiny\Documents\GitHub\leafy-green\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4AE1FB1-F5EF-49D8-B7E4-3D71DA7D71C7}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12300" activeTab="1"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Dat" sheetId="1" r:id="rId1"/>
-    <sheet name="NBI" sheetId="5" r:id="rId2"/>
-    <sheet name="Flav" sheetId="4" r:id="rId3"/>
-    <sheet name="Chl" sheetId="3" r:id="rId4"/>
-    <sheet name="Anth" sheetId="2" r:id="rId5"/>
+    <sheet name="Anth" sheetId="2" r:id="rId2"/>
+    <sheet name="Chl" sheetId="3" r:id="rId3"/>
+    <sheet name="Flav" sheetId="4" r:id="rId4"/>
+    <sheet name="NBI" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="369" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="528" uniqueCount="56">
   <si>
     <t>Column</t>
   </si>
@@ -44,6 +45,15 @@
   </si>
   <si>
     <t>1</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>4</t>
   </si>
   <si>
     <t>10</t>
@@ -71,9 +81,6 @@
   </si>
   <si>
     <t>19</t>
-  </si>
-  <si>
-    <t>2</t>
   </si>
   <si>
     <t>20</t>
@@ -106,9 +113,6 @@
     <t>29</t>
   </si>
   <si>
-    <t>3</t>
-  </si>
-  <si>
     <t>30</t>
   </si>
   <si>
@@ -137,9 +141,6 @@
   </si>
   <si>
     <t>39</t>
-  </si>
-  <si>
-    <t>4</t>
   </si>
   <si>
     <t>40</t>
@@ -196,11 +197,17 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -262,7 +269,7 @@
         <a:srgbClr val="E7E6E6"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="4472C4"/>
       </a:accent1>
       <a:accent2>
         <a:srgbClr val="ED7D31"/>
@@ -274,7 +281,7 @@
         <a:srgbClr val="FFC000"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="5B9BD5"/>
       </a:accent5>
       <a:accent6>
         <a:srgbClr val="70AD47"/>
@@ -321,6 +328,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -356,6 +380,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -507,11 +548,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F160"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCellId="1" sqref="F1:F1048576 A1:B1048576"/>
+      <selection sqref="A1:F1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -537,3183 +578,3183 @@
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2">
-        <v>1</v>
+      <c r="A2" t="s">
+        <v>6</v>
       </c>
       <c r="B2" t="s">
         <v>6</v>
       </c>
       <c r="C2">
-        <v>2.7033242963372356E-3</v>
+        <v>4.9797472011508647E-3</v>
       </c>
       <c r="D2">
-        <v>-1.1196314102564076</v>
+        <v>7.7054174070940354E-2</v>
       </c>
       <c r="E2">
-        <v>3.2922151479396443E-2</v>
+        <v>3.3425693112061512E-2</v>
       </c>
       <c r="F2">
-        <v>-9.2518260877639119E-2</v>
+        <v>-8.4874222121184326E-2</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3">
-        <v>1</v>
+      <c r="A3" t="s">
+        <v>6</v>
       </c>
       <c r="B3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3">
+        <v>-5.2482697271160721E-3</v>
+      </c>
+      <c r="D3">
+        <v>-3.5742831656726541</v>
+      </c>
+      <c r="E3">
+        <v>-5.0347020492171296E-2</v>
+      </c>
+      <c r="F3">
+        <v>-0.63819000087667177</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4">
+        <v>-1.6731776956280327E-3</v>
+      </c>
+      <c r="D4">
+        <v>-2.7101745819613878</v>
+      </c>
+      <c r="E4">
+        <v>-9.7352763165721459E-2</v>
+      </c>
+      <c r="F4">
+        <v>-0.53079282838495745</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C5">
+        <v>2.5521389892784605E-2</v>
+      </c>
+      <c r="D5">
+        <v>-1.9759621429453782</v>
+      </c>
+      <c r="E5">
+        <v>-8.8126400546070002E-2</v>
+      </c>
+      <c r="F5">
+        <v>-0.33681501629076233</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6" t="s">
+        <v>13</v>
+      </c>
+      <c r="C6">
+        <v>3.4783610139658645E-2</v>
+      </c>
+      <c r="D6">
+        <v>1.552702825706658</v>
+      </c>
+      <c r="E6">
+        <v>-0.19588882144693728</v>
+      </c>
+      <c r="F6">
+        <v>2.5117020111468653</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>14</v>
+      </c>
+      <c r="C7">
+        <v>2.045510201399672E-2</v>
+      </c>
+      <c r="D7">
+        <v>-5.3080113853696211</v>
+      </c>
+      <c r="E7">
+        <v>3.4190834302414833E-2</v>
+      </c>
+      <c r="F7">
+        <v>-2.9145706981089439</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>6</v>
+      </c>
+      <c r="B8" t="s">
+        <v>15</v>
+      </c>
+      <c r="C8">
+        <v>5.9096474685421743E-3</v>
+      </c>
+      <c r="D8">
+        <v>-0.24016290052113864</v>
+      </c>
+      <c r="E8">
+        <v>2.1302282418088122E-3</v>
+      </c>
+      <c r="F8">
+        <v>0.18209596855772325</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>6</v>
+      </c>
+      <c r="B9" t="s">
+        <v>16</v>
+      </c>
+      <c r="C9">
+        <v>8.6121193745287185E-3</v>
+      </c>
+      <c r="D9">
+        <v>4.612827250994016</v>
+      </c>
+      <c r="E9">
+        <v>2.093092524100687E-2</v>
+      </c>
+      <c r="F9">
+        <v>2.3641516871171184</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>6</v>
+      </c>
+      <c r="B10" t="s">
+        <v>17</v>
+      </c>
+      <c r="C10">
+        <v>-3.1145949557002421E-3</v>
+      </c>
+      <c r="D10">
+        <v>-3.8727416883999273</v>
+      </c>
+      <c r="E10">
+        <v>0.10066659187817238</v>
+      </c>
+      <c r="F10">
+        <v>-3.2425403950786387</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>6</v>
+      </c>
+      <c r="B11" t="s">
+        <v>18</v>
+      </c>
+      <c r="C11">
+        <v>9.2732838321785364E-3</v>
+      </c>
+      <c r="D11">
+        <v>1.5381098267515911</v>
+      </c>
+      <c r="E11">
+        <v>7.400901612059671E-2</v>
+      </c>
+      <c r="F11">
+        <v>0.29361112007287393</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>6</v>
+      </c>
+      <c r="B12" t="s">
         <v>7</v>
       </c>
-      <c r="C3">
-        <v>-7.5352350473429997E-3</v>
-      </c>
-      <c r="D3">
-        <v>-4.7709687500000015</v>
-      </c>
-      <c r="E3">
-        <v>-5.0884621718308987E-2</v>
-      </c>
-      <c r="F3">
-        <v>-0.65846231682169398</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4">
-        <v>1</v>
-      </c>
-      <c r="B4" t="s">
+      <c r="C12">
+        <v>5.7581323170270227E-3</v>
+      </c>
+      <c r="D12">
+        <v>-4.6011325974908361</v>
+      </c>
+      <c r="E12">
+        <v>-7.5203105091524461E-2</v>
+      </c>
+      <c r="F12">
+        <v>-1.7763888799271241</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>6</v>
+      </c>
+      <c r="B13" t="s">
+        <v>19</v>
+      </c>
+      <c r="C13">
+        <v>7.5727905270340772E-3</v>
+      </c>
+      <c r="D13">
+        <v>3.8696390726994427</v>
+      </c>
+      <c r="E13">
+        <v>0.12944594353426833</v>
+      </c>
+      <c r="F13">
+        <v>0.99215234628852078</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>6</v>
+      </c>
+      <c r="B14" t="s">
+        <v>20</v>
+      </c>
+      <c r="C14">
+        <v>-1.1072784237084916E-2</v>
+      </c>
+      <c r="D14">
+        <v>3.0607270257687897</v>
+      </c>
+      <c r="E14">
+        <v>-8.8488480252394461E-2</v>
+      </c>
+      <c r="F14">
+        <v>2.4235744944915356</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>6</v>
+      </c>
+      <c r="B15" t="s">
+        <v>21</v>
+      </c>
+      <c r="C15">
+        <v>6.1823747412694469E-3</v>
+      </c>
+      <c r="D15">
+        <v>-0.74619320355144358</v>
+      </c>
+      <c r="E15">
+        <v>1.8251440363020996E-2</v>
+      </c>
+      <c r="F15">
+        <v>-0.99366160719985008</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>6</v>
+      </c>
+      <c r="B16" t="s">
+        <v>22</v>
+      </c>
+      <c r="C16">
+        <v>-1.0776177030042841E-2</v>
+      </c>
+      <c r="D16">
+        <v>0.55216232851339453</v>
+      </c>
+      <c r="E16">
+        <v>0.29903124971980921</v>
+      </c>
+      <c r="F16">
+        <v>-2.1873258337661223</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>6</v>
+      </c>
+      <c r="B17" t="s">
+        <v>23</v>
+      </c>
+      <c r="C17">
+        <v>5.8984805455284091E-3</v>
+      </c>
+      <c r="D17">
+        <v>-1.9361704762787124</v>
+      </c>
+      <c r="E17">
+        <v>5.1866398386697987E-2</v>
+      </c>
+      <c r="F17">
+        <v>-1.522216612193076</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>6</v>
+      </c>
+      <c r="B18" t="s">
+        <v>24</v>
+      </c>
+      <c r="C18">
+        <v>-5.1459495570025076E-4</v>
+      </c>
+      <c r="D18">
+        <v>-0.90667805203628948</v>
+      </c>
+      <c r="E18">
+        <v>0.1230999252115058</v>
+      </c>
+      <c r="F18">
+        <v>-1.9179040314422748</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>6</v>
+      </c>
+      <c r="B19" t="s">
+        <v>25</v>
+      </c>
+      <c r="C19">
+        <v>1.2561474433318263E-2</v>
+      </c>
+      <c r="D19">
+        <v>-5.6910402221242631</v>
+      </c>
+      <c r="E19">
+        <v>0.14819082260200589</v>
+      </c>
+      <c r="F19">
+        <v>-4.1702813036473527</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>6</v>
+      </c>
+      <c r="B20" t="s">
+        <v>26</v>
+      </c>
+      <c r="C20">
+        <v>-3.6661101072154065E-3</v>
+      </c>
+      <c r="D20">
+        <v>-4.272976347490836</v>
+      </c>
+      <c r="E20">
+        <v>4.4009963090293584E-2</v>
+      </c>
+      <c r="F20">
+        <v>-2.7101956981089437</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>6</v>
+      </c>
+      <c r="B21" t="s">
+        <v>27</v>
+      </c>
+      <c r="C21">
+        <v>-2.954489798600328E-2</v>
+      </c>
+      <c r="D21">
+        <v>1.3142310388728036</v>
+      </c>
+      <c r="E21">
+        <v>-0.1761424990309185</v>
+      </c>
+      <c r="F21">
+        <v>2.1145202109819667</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>6</v>
+      </c>
+      <c r="B22" t="s">
+        <v>28</v>
+      </c>
+      <c r="C22">
+        <v>-1.6593618890507967E-2</v>
+      </c>
+      <c r="D22">
+        <v>-3.6385581656726531</v>
+      </c>
+      <c r="E22">
+        <v>2.9731104370971907E-2</v>
+      </c>
+      <c r="F22">
+        <v>-2.4173331012079822</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>6</v>
+      </c>
+      <c r="B23" t="s">
         <v>8</v>
       </c>
-      <c r="C4">
-        <v>-3.9353771677790991E-3</v>
-      </c>
-      <c r="D4">
-        <v>-3.9068601662887357</v>
-      </c>
-      <c r="E4">
-        <v>-9.7874609611923541E-2</v>
-      </c>
-      <c r="F4">
-        <v>-0.52735713232365222</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5">
-        <v>1</v>
-      </c>
-      <c r="B5" t="s">
+      <c r="C23">
+        <v>7.3944959533906677E-3</v>
+      </c>
+      <c r="D23">
+        <v>-3.3698295671878031</v>
+      </c>
+      <c r="E23">
+        <v>-0.13068795357637317</v>
+      </c>
+      <c r="F23">
+        <v>-1.0954797890180343</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>6</v>
+      </c>
+      <c r="B24" t="s">
+        <v>29</v>
+      </c>
+      <c r="C24">
+        <v>9.6563811094920304E-3</v>
+      </c>
+      <c r="D24">
+        <v>1.1217189176606783</v>
+      </c>
+      <c r="E24">
+        <v>9.5831877043051732E-3</v>
+      </c>
+      <c r="F24">
+        <v>0.87993773212534809</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>6</v>
+      </c>
+      <c r="B25" t="s">
+        <v>30</v>
+      </c>
+      <c r="C25">
+        <v>7.8753869679140057E-3</v>
+      </c>
+      <c r="D25">
+        <v>-4.1308182916416447</v>
+      </c>
+      <c r="E25">
+        <v>4.3108751272905442E-2</v>
+      </c>
+      <c r="F25">
+        <v>-2.0477066405154738</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>6</v>
+      </c>
+      <c r="B26" t="s">
+        <v>31</v>
+      </c>
+      <c r="C26">
+        <v>-1.9347928289033575E-2</v>
+      </c>
+      <c r="D26">
+        <v>6.8161628570546213</v>
+      </c>
+      <c r="E26">
+        <v>3.8423494539299163E-3</v>
+      </c>
+      <c r="F26">
+        <v>3.258156574618329</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>6</v>
+      </c>
+      <c r="B27" t="s">
+        <v>32</v>
+      </c>
+      <c r="C27">
+        <v>-2.369641313751843E-2</v>
+      </c>
+      <c r="D27">
+        <v>-5.5615871429453829</v>
+      </c>
+      <c r="E27">
+        <v>-2.0718256606676023E-2</v>
+      </c>
+      <c r="F27">
+        <v>-3.1518434253816716</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>6</v>
+      </c>
+      <c r="B28" t="s">
+        <v>33</v>
+      </c>
+      <c r="C28">
+        <v>7.2657080746027789E-3</v>
+      </c>
+      <c r="D28">
+        <v>-4.7797462338544703</v>
+      </c>
+      <c r="E28">
+        <v>-4.908946872788824E-2</v>
+      </c>
+      <c r="F28">
+        <v>-1.5557070617453055</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>6</v>
+      </c>
+      <c r="B29" t="s">
+        <v>34</v>
+      </c>
+      <c r="C29">
+        <v>5.8755981161750142E-3</v>
+      </c>
+      <c r="D29">
+        <v>2.3735911398829028</v>
+      </c>
+      <c r="E29">
+        <v>4.8756256239135563E-2</v>
+      </c>
+      <c r="F29">
+        <v>1.0320143047142831</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>6</v>
+      </c>
+      <c r="B30" t="s">
+        <v>35</v>
+      </c>
+      <c r="C30">
+        <v>-4.9123139228714691E-3</v>
+      </c>
+      <c r="D30">
+        <v>1.7407043343273489</v>
+      </c>
+      <c r="E30">
+        <v>-9.5123889356426933E-2</v>
+      </c>
+      <c r="F30">
+        <v>1.9202932075310026</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>6</v>
+      </c>
+      <c r="B31" t="s">
+        <v>36</v>
+      </c>
+      <c r="C31">
+        <v>-2.2248139228714702E-3</v>
+      </c>
+      <c r="D31">
+        <v>-0.43335816567265439</v>
+      </c>
+      <c r="E31">
+        <v>4.5376110643573164E-2</v>
+      </c>
+      <c r="F31">
+        <v>-0.53533179246899754</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>6</v>
+      </c>
+      <c r="B32" t="s">
+        <v>37</v>
+      </c>
+      <c r="C32">
+        <v>1.0513087336544071E-2</v>
+      </c>
+      <c r="D32">
+        <v>-4.76343699631781</v>
+      </c>
+      <c r="E32">
+        <v>2.5874693569747899E-2</v>
+      </c>
+      <c r="F32">
+        <v>-2.8889264649376747</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>6</v>
+      </c>
+      <c r="B33" t="s">
+        <v>38</v>
+      </c>
+      <c r="C33">
+        <v>-2.0297464708517597E-3</v>
+      </c>
+      <c r="D33">
+        <v>3.2518067964485629</v>
+      </c>
+      <c r="E33">
+        <v>5.7362888478693841E-3</v>
+      </c>
+      <c r="F33">
+        <v>1.3505808170425724</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>6</v>
+      </c>
+      <c r="B34" t="s">
         <v>9</v>
       </c>
-      <c r="C5">
-        <v>2.3263906353555654E-2</v>
-      </c>
-      <c r="D5">
-        <v>-3.172647727272726</v>
-      </c>
-      <c r="E5">
-        <v>-8.8634471513481292E-2</v>
-      </c>
-      <c r="F5">
-        <v>-0.32786572591260499</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6">
-        <v>1</v>
-      </c>
-      <c r="B6" t="s">
-        <v>10</v>
-      </c>
-      <c r="C6">
-        <v>3.2565520480845822E-2</v>
-      </c>
-      <c r="D6">
-        <v>0.35601724137931007</v>
-      </c>
-      <c r="E6">
-        <v>-0.19640631343062073</v>
-      </c>
-      <c r="F6">
-        <v>2.5551654261250154</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7">
-        <v>1</v>
-      </c>
-      <c r="B7" t="s">
-        <v>11</v>
-      </c>
-      <c r="C7">
-        <v>1.8197618474767766E-2</v>
-      </c>
-      <c r="D7">
-        <v>-6.504696969696969</v>
-      </c>
-      <c r="E7">
-        <v>3.3682763335003536E-2</v>
-      </c>
-      <c r="F7">
-        <v>-2.9056214077307865</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8">
-        <v>1</v>
-      </c>
-      <c r="B8" t="s">
-        <v>12</v>
-      </c>
-      <c r="C8">
-        <v>3.6521639293132205E-3</v>
-      </c>
-      <c r="D8">
-        <v>-1.4368484848484864</v>
-      </c>
-      <c r="E8">
-        <v>1.6221572743975177E-3</v>
-      </c>
-      <c r="F8">
-        <v>0.19104525893588056</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9">
-        <v>1</v>
-      </c>
-      <c r="B9" t="s">
-        <v>13</v>
-      </c>
-      <c r="C9">
-        <v>6.2720674078715795E-3</v>
-      </c>
-      <c r="D9">
-        <v>3.4161416666666682</v>
-      </c>
-      <c r="E9">
-        <v>2.0492899055194858E-2</v>
-      </c>
-      <c r="F9">
-        <v>2.3054240468146698</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10">
-        <v>1</v>
-      </c>
-      <c r="B10" t="s">
-        <v>14</v>
-      </c>
-      <c r="C10">
-        <v>-5.3720784949291937E-3</v>
-      </c>
-      <c r="D10">
-        <v>-5.0694272727272756</v>
-      </c>
-      <c r="E10">
-        <v>0.10015852091076108</v>
-      </c>
-      <c r="F10">
-        <v>-3.2335911047004813</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11">
-        <v>1</v>
-      </c>
-      <c r="B11" t="s">
-        <v>15</v>
-      </c>
-      <c r="C11">
-        <v>7.0158002929495847E-3</v>
-      </c>
-      <c r="D11">
-        <v>0.34142424242424335</v>
-      </c>
-      <c r="E11">
-        <v>7.3500945153185407E-2</v>
-      </c>
-      <c r="F11">
-        <v>0.30256041045103127</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12">
-        <v>1</v>
-      </c>
-      <c r="B12" t="s">
-        <v>16</v>
-      </c>
-      <c r="C12">
-        <v>3.500648777798071E-3</v>
-      </c>
-      <c r="D12">
-        <v>-5.797818181818184</v>
-      </c>
-      <c r="E12">
-        <v>-7.571117605893575E-2</v>
-      </c>
-      <c r="F12">
-        <v>-1.7674395895489667</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13">
-        <v>1</v>
-      </c>
-      <c r="B13" t="s">
-        <v>17</v>
-      </c>
-      <c r="C13">
-        <v>-7.1904819189889501E-4</v>
-      </c>
-      <c r="D13">
-        <v>2.9753863636363644</v>
-      </c>
-      <c r="E13">
-        <v>0.14131155121379144</v>
-      </c>
-      <c r="F13">
-        <v>1.0759695013601231</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A14">
-        <v>1</v>
-      </c>
-      <c r="B14" t="s">
-        <v>18</v>
-      </c>
-      <c r="C14">
-        <v>-1.3312493868629587E-2</v>
-      </c>
-      <c r="D14">
-        <v>1.8640414414414421</v>
-      </c>
-      <c r="E14">
-        <v>-8.902762775914394E-2</v>
-      </c>
-      <c r="F14">
-        <v>2.4456087314993544</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A15">
-        <v>1</v>
-      </c>
-      <c r="B15" t="s">
-        <v>19</v>
-      </c>
-      <c r="C15">
-        <v>3.9248912020404952E-3</v>
-      </c>
-      <c r="D15">
-        <v>-1.9428787878787921</v>
-      </c>
-      <c r="E15">
-        <v>1.77433693956097E-2</v>
-      </c>
-      <c r="F15">
-        <v>-0.9847123168216928</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A16">
-        <v>1</v>
-      </c>
-      <c r="B16" t="s">
-        <v>20</v>
-      </c>
-      <c r="C16">
-        <v>-1.3026696647953437E-2</v>
-      </c>
-      <c r="D16">
-        <v>-0.64452325581395331</v>
-      </c>
-      <c r="E16">
-        <v>0.29848127445152672</v>
-      </c>
-      <c r="F16">
-        <v>-2.1760061857434696</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A17">
-        <v>1</v>
-      </c>
-      <c r="B17" t="s">
-        <v>21</v>
-      </c>
-      <c r="C17">
-        <v>3.635193738534161E-3</v>
-      </c>
-      <c r="D17">
-        <v>-3.1328560606060605</v>
-      </c>
-      <c r="E17">
-        <v>5.1393247670012687E-2</v>
-      </c>
-      <c r="F17">
-        <v>-1.5152426198519982</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A18">
-        <v>1</v>
-      </c>
-      <c r="B18" t="s">
-        <v>22</v>
-      </c>
-      <c r="C18">
-        <v>-2.7720784949292021E-3</v>
-      </c>
-      <c r="D18">
-        <v>-2.1033636363636372</v>
-      </c>
-      <c r="E18">
-        <v>0.12259185424409451</v>
-      </c>
-      <c r="F18">
-        <v>-1.9089547410641174</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A19">
-        <v>1</v>
-      </c>
-      <c r="B19" t="s">
-        <v>23</v>
-      </c>
-      <c r="C19">
-        <v>1.034338477450544E-2</v>
-      </c>
-      <c r="D19">
-        <v>-6.8877258064516109</v>
-      </c>
-      <c r="E19">
-        <v>0.14767333061832244</v>
-      </c>
-      <c r="F19">
-        <v>-4.1268178886692022</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A20">
-        <v>1</v>
-      </c>
-      <c r="B20" t="s">
-        <v>24</v>
-      </c>
-      <c r="C20">
-        <v>-5.9235936464443577E-3</v>
-      </c>
-      <c r="D20">
-        <v>-5.4696619318181838</v>
-      </c>
-      <c r="E20">
-        <v>4.3501892122882288E-2</v>
-      </c>
-      <c r="F20">
-        <v>-2.7012464077307863</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A21">
-        <v>1</v>
-      </c>
-      <c r="B21" t="s">
-        <v>25</v>
-      </c>
-      <c r="C21">
-        <v>-3.180238152523223E-2</v>
-      </c>
-      <c r="D21">
-        <v>0.11754545454545577</v>
-      </c>
-      <c r="E21">
-        <v>-0.17665056999832979</v>
-      </c>
-      <c r="F21">
-        <v>2.1234695013601241</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A22">
-        <v>1</v>
-      </c>
-      <c r="B22" t="s">
-        <v>26</v>
-      </c>
-      <c r="C22">
-        <v>-1.8844138508418564E-2</v>
-      </c>
-      <c r="D22">
-        <v>-4.835243750000001</v>
-      </c>
-      <c r="E22">
-        <v>2.918112910268942E-2</v>
-      </c>
-      <c r="F22">
-        <v>-2.4060134531853294</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A23">
-        <v>1</v>
-      </c>
-      <c r="B23" t="s">
-        <v>27</v>
-      </c>
-      <c r="C23">
-        <v>5.137012414161716E-3</v>
-      </c>
-      <c r="D23">
-        <v>-4.5665151515151505</v>
-      </c>
-      <c r="E23">
-        <v>-0.13119602454378446</v>
-      </c>
-      <c r="F23">
-        <v>-1.0865304986398772</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A24">
-        <v>1</v>
-      </c>
-      <c r="B24" t="s">
-        <v>28</v>
-      </c>
-      <c r="C24">
-        <v>7.405861491581435E-3</v>
-      </c>
-      <c r="D24">
-        <v>-7.4966666666669471E-2</v>
-      </c>
-      <c r="E24">
-        <v>9.0332124360226855E-3</v>
-      </c>
-      <c r="F24">
-        <v>0.89125738014800082</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A25">
-        <v>1</v>
-      </c>
-      <c r="B25" t="s">
-        <v>29</v>
-      </c>
-      <c r="C25">
-        <v>5.5696323573393401E-3</v>
-      </c>
-      <c r="D25">
-        <v>-5.3275038759689926</v>
-      </c>
-      <c r="E25">
-        <v>4.2593062921626158E-2</v>
-      </c>
-      <c r="F25">
-        <v>-2.0828256763304047</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A26">
-        <v>1</v>
-      </c>
-      <c r="B26" t="s">
-        <v>30</v>
-      </c>
-      <c r="C26">
-        <v>-2.1605411828262526E-2</v>
-      </c>
-      <c r="D26">
-        <v>5.6194772727272735</v>
-      </c>
-      <c r="E26">
-        <v>3.3342784865186218E-3</v>
-      </c>
-      <c r="F26">
-        <v>3.2671058649964864</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A27">
-        <v>1</v>
-      </c>
-      <c r="B27" t="s">
-        <v>31</v>
-      </c>
-      <c r="C27">
-        <v>-2.5953896676747381E-2</v>
-      </c>
-      <c r="D27">
-        <v>-6.7582727272727308</v>
-      </c>
-      <c r="E27">
-        <v>-2.1226327574087319E-2</v>
-      </c>
-      <c r="F27">
-        <v>-3.1428941350035142</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A28">
-        <v>1</v>
-      </c>
-      <c r="B28" t="s">
-        <v>32</v>
-      </c>
-      <c r="C28">
-        <v>5.0082245353738281E-3</v>
-      </c>
-      <c r="D28">
-        <v>-5.9764318181818181</v>
-      </c>
-      <c r="E28">
-        <v>-4.9597539695299536E-2</v>
-      </c>
-      <c r="F28">
-        <v>-1.5467577713671483</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A29">
-        <v>1</v>
-      </c>
-      <c r="B29" t="s">
-        <v>33</v>
-      </c>
-      <c r="C29">
-        <v>3.5852863432659543E-3</v>
-      </c>
-      <c r="D29">
-        <v>1.176905555555555</v>
-      </c>
-      <c r="E29">
-        <v>4.8256036118617729E-2</v>
-      </c>
-      <c r="F29">
-        <v>1.0122018245924462</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A30">
-        <v>1</v>
-      </c>
-      <c r="B30" t="s">
-        <v>34</v>
-      </c>
-      <c r="C30">
-        <v>-7.2063067937308736E-3</v>
-      </c>
-      <c r="D30">
-        <v>0.54401875000000111</v>
-      </c>
-      <c r="E30">
-        <v>-9.5582990260762918E-2</v>
-      </c>
-      <c r="F30">
-        <v>1.9009865468146701</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A31">
-        <v>1</v>
-      </c>
-      <c r="B31" t="s">
-        <v>35</v>
-      </c>
-      <c r="C31">
-        <v>-4.5188067937308746E-3</v>
-      </c>
-      <c r="D31">
-        <v>-1.6300437500000022</v>
-      </c>
-      <c r="E31">
-        <v>4.4917009739237179E-2</v>
-      </c>
-      <c r="F31">
-        <v>-0.55463845318533023</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A32">
-        <v>1</v>
-      </c>
-      <c r="B32" t="s">
-        <v>36</v>
-      </c>
-      <c r="C32">
-        <v>8.294997677731248E-3</v>
-      </c>
-      <c r="D32">
-        <v>-5.9601225806451579</v>
-      </c>
-      <c r="E32">
-        <v>2.535720158606445E-2</v>
-      </c>
-      <c r="F32">
-        <v>-2.8454630499595241</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A33">
-        <v>1</v>
-      </c>
-      <c r="B33" t="s">
-        <v>37</v>
-      </c>
-      <c r="C33">
-        <v>-4.287230010080711E-3</v>
-      </c>
-      <c r="D33">
-        <v>2.055121212121215</v>
-      </c>
-      <c r="E33">
-        <v>5.2282178804580895E-3</v>
-      </c>
-      <c r="F33">
-        <v>1.3595301074207298</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A34">
-        <v>1</v>
-      </c>
-      <c r="B34" t="s">
-        <v>38</v>
-      </c>
       <c r="C34">
-        <v>-2.2135613835221789E-2</v>
+        <v>-1.9848648514994863E-2</v>
       </c>
       <c r="D34">
-        <v>3.7343333333333315</v>
+        <v>4.9310189176606789</v>
       </c>
       <c r="E34">
-        <v>-4.7615682324369552E-2</v>
+        <v>-4.7078081098231861E-2</v>
       </c>
       <c r="F34">
-        <v>2.8722573801480036</v>
+        <v>2.8925296960930256</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A35">
-        <v>1</v>
+      <c r="A35" t="s">
+        <v>6</v>
       </c>
       <c r="B35" t="s">
         <v>39</v>
       </c>
       <c r="C35">
-        <v>-1.0469048191898901E-2</v>
+        <v>-8.2115646526699487E-3</v>
       </c>
       <c r="D35">
-        <v>-1.0339696969696979</v>
+        <v>0.16271588735765005</v>
       </c>
       <c r="E35">
-        <v>-7.683238818014794E-2</v>
+        <v>-7.6324317212736636E-2</v>
       </c>
       <c r="F35">
-        <v>0.66468162257224606</v>
+        <v>0.65573233219408877</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A36">
-        <v>1</v>
+      <c r="A36" t="s">
+        <v>6</v>
       </c>
       <c r="B36" t="s">
         <v>40</v>
       </c>
       <c r="C36">
-        <v>6.378659405862323E-3</v>
+        <v>8.6030804322450877E-3</v>
       </c>
       <c r="D36">
-        <v>-2.0503817271589506</v>
+        <v>-0.85369614283160311</v>
       </c>
       <c r="E36">
-        <v>1.8815496457695619E-2</v>
+        <v>1.9355144231701846E-2</v>
       </c>
       <c r="F36">
-        <v>-0.79794704204640698</v>
+        <v>-0.83366869324485049</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A37">
-        <v>1</v>
+      <c r="A37" t="s">
+        <v>6</v>
       </c>
       <c r="B37" t="s">
         <v>41</v>
       </c>
       <c r="C37">
-        <v>-3.2774587543040233E-3</v>
+        <v>-9.8045407603070058E-4</v>
       </c>
       <c r="D37">
-        <v>3.7500000000000018</v>
+        <v>4.9466855843273496</v>
       </c>
       <c r="E37">
-        <v>-4.6773254268134903E-2</v>
+        <v>-4.6347796358856795E-2</v>
       </c>
       <c r="F37">
-        <v>3.153166471057093</v>
+        <v>3.1720592795325588</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A38">
-        <v>1</v>
+      <c r="A38" t="s">
+        <v>6</v>
       </c>
       <c r="B38" t="s">
         <v>42</v>
       </c>
       <c r="C38">
-        <v>-6.9646493649194183E-3</v>
+        <v>-4.7071658256904667E-3</v>
       </c>
       <c r="D38">
-        <v>-2.2428445747800616</v>
+        <v>-1.0461589904527138</v>
       </c>
       <c r="E38">
-        <v>0.12826536353050708</v>
+        <v>0.12877343449791837</v>
       </c>
       <c r="F38">
-        <v>-1.8758560118363583</v>
+        <v>-1.8848053022145157</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A39">
-        <v>1</v>
+      <c r="A39" t="s">
+        <v>6</v>
       </c>
       <c r="B39" t="s">
         <v>43</v>
       </c>
       <c r="C39">
-        <v>-1.3633832967430037E-2</v>
+        <v>-1.1415743308617216E-2</v>
       </c>
       <c r="D39">
-        <v>6.5083937499999989</v>
+        <v>7.7050793343273467</v>
       </c>
       <c r="E39">
-        <v>-8.7321830672000098E-2</v>
+        <v>-8.6804338688316648E-2</v>
       </c>
       <c r="F39">
-        <v>5.3254240468146685</v>
+        <v>5.281960631836518</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A40">
-        <v>1</v>
+      <c r="A40" t="s">
+        <v>6</v>
       </c>
       <c r="B40" t="s">
         <v>44</v>
       </c>
       <c r="C40">
-        <v>1.4829049059686732E-2</v>
+        <v>1.7086532598915682E-2</v>
       </c>
       <c r="D40">
-        <v>-1.3388879492600443</v>
+        <v>-0.14220236493269633</v>
       </c>
       <c r="E40">
-        <v>9.452349624550381E-2</v>
+        <v>9.5031567212915113E-2</v>
       </c>
       <c r="F40">
-        <v>-1.1849871582593252</v>
+        <v>-1.1939364486374826</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A41">
-        <v>1</v>
+      <c r="A41" t="s">
+        <v>6</v>
       </c>
       <c r="B41" t="s">
         <v>45</v>
       </c>
       <c r="C41">
-        <v>-1.3604431485300496E-2</v>
+        <v>-1.1342868573538865E-2</v>
       </c>
       <c r="D41">
-        <v>-0.93937441860465221</v>
+        <v>0.25731116572269491</v>
       </c>
       <c r="E41">
-        <v>-6.0664147709871052E-2</v>
+        <v>-6.0237530090134106E-2</v>
       </c>
       <c r="F41">
-        <v>0.76576125611699553</v>
+        <v>0.75292414987783085</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A42">
-        <v>1</v>
+      <c r="A42" t="s">
+        <v>6</v>
       </c>
       <c r="B42" t="s">
         <v>46</v>
       </c>
       <c r="C42">
-        <v>-4.2745450206515346E-3</v>
+        <v>-2.0170614814225829E-3</v>
       </c>
       <c r="D42">
-        <v>1.6105179704016932</v>
+        <v>2.8072035547290408</v>
       </c>
       <c r="E42">
-        <v>-7.6740774367603834E-2</v>
+        <v>-7.6232703400192531E-2</v>
       </c>
       <c r="F42">
-        <v>1.9046745753558953</v>
+        <v>1.8957252849777382</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A43">
-        <v>1</v>
+      <c r="A43" t="s">
+        <v>6</v>
       </c>
       <c r="B43" t="s">
         <v>47</v>
       </c>
       <c r="C43">
-        <v>-1.2408442131292833E-2</v>
+        <v>-1.015095859206388E-2</v>
       </c>
       <c r="D43">
-        <v>2.5551515151515147</v>
+        <v>3.7518370994788626</v>
       </c>
       <c r="E43">
-        <v>-5.6044509392269196E-2</v>
+        <v>-5.5536438424857899E-2</v>
       </c>
       <c r="F43">
-        <v>2.2480149559055773</v>
+        <v>2.2390656655274199</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A44">
-        <v>1</v>
+      <c r="A44" t="s">
+        <v>6</v>
       </c>
       <c r="B44" t="s">
         <v>48</v>
       </c>
       <c r="C44">
-        <v>-1.6991775464626161E-2</v>
+        <v>-1.473429192539721E-2</v>
       </c>
       <c r="D44">
-        <v>5.3655454545454537</v>
+        <v>6.5622310388728016</v>
       </c>
       <c r="E44">
-        <v>0.12210700575924592</v>
+        <v>0.12261507672665721</v>
       </c>
       <c r="F44">
-        <v>2.3057422286328495</v>
+        <v>2.2967929382546921</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A45">
-        <v>1</v>
+      <c r="A45" t="s">
+        <v>6</v>
       </c>
       <c r="B45" t="s">
         <v>49</v>
       </c>
       <c r="C45">
-        <v>7.4943206269123544E-5</v>
+        <v>2.3689360771285278E-3</v>
       </c>
       <c r="D45">
-        <v>-4.9600749999999989</v>
+        <v>-3.7633894156726511</v>
       </c>
       <c r="E45">
-        <v>-0.12732049026076303</v>
+        <v>-0.12686138935642705</v>
       </c>
       <c r="F45">
-        <v>-0.97313845318533188</v>
+        <v>-0.95383179246899918</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A46">
-        <v>1</v>
+      <c r="A46" t="s">
+        <v>6</v>
       </c>
       <c r="B46" t="s">
         <v>50</v>
       </c>
       <c r="C46">
-        <v>-2.2657274178019774E-2</v>
+        <v>-2.0400268568289623E-2</v>
       </c>
       <c r="D46">
-        <v>1.995449824561405</v>
+        <v>3.1921354088887526</v>
       </c>
       <c r="E46">
-        <v>-1.4584375433600591E-2</v>
+        <v>-1.4027903508398297E-2</v>
       </c>
       <c r="F46">
-        <v>1.6321942222532657</v>
+        <v>1.6273033276217124</v>
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A47">
-        <v>1</v>
+      <c r="A47" t="s">
+        <v>6</v>
       </c>
       <c r="B47" t="s">
         <v>51</v>
       </c>
       <c r="C47">
-        <v>-9.3478360706867741E-3</v>
+        <v>-7.0903525314578225E-3</v>
       </c>
       <c r="D47">
-        <v>2.0371212121212126</v>
+        <v>3.2338067964485604</v>
       </c>
       <c r="E47">
-        <v>1.328882394106403E-2</v>
+        <v>1.3796894908475325E-2</v>
       </c>
       <c r="F47">
-        <v>1.5807422286328507</v>
+        <v>1.5717929382546936</v>
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A48">
-        <v>1</v>
+      <c r="A48" t="s">
+        <v>6</v>
       </c>
       <c r="B48" t="s">
         <v>52</v>
       </c>
       <c r="C48">
-        <v>2.7470345747495049E-2</v>
+        <v>2.9727829286724003E-2</v>
       </c>
       <c r="D48">
-        <v>-4.0584848484848512</v>
+        <v>-2.861799264157503</v>
       </c>
       <c r="E48">
-        <v>-4.601420636196616E-2</v>
+        <v>-4.5506135394554864E-2</v>
       </c>
       <c r="F48">
-        <v>-1.3913789834883608</v>
+        <v>-1.4003282738665181</v>
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A49">
-        <v>1</v>
+      <c r="A49" t="s">
+        <v>6</v>
       </c>
       <c r="B49" t="s">
         <v>53</v>
       </c>
       <c r="C49">
-        <v>4.5006487777980771E-3</v>
+        <v>6.7581323170270288E-3</v>
       </c>
       <c r="D49">
-        <v>-0.69730303030303176</v>
+        <v>0.49938255402431603</v>
       </c>
       <c r="E49">
-        <v>-5.801420636196597E-2</v>
+        <v>-5.7506135394554674E-2</v>
       </c>
       <c r="F49">
-        <v>0.70831798620860775</v>
+        <v>0.69936869583045047</v>
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A50">
-        <v>1</v>
+      <c r="A50" t="s">
+        <v>6</v>
       </c>
       <c r="B50" t="s">
         <v>54</v>
       </c>
       <c r="C50">
-        <v>-1.5340705945909595E-2</v>
+        <v>-1.3083222406680643E-2</v>
       </c>
       <c r="D50">
-        <v>7.2909625668449172</v>
+        <v>8.4876481511722641</v>
       </c>
       <c r="E50">
-        <v>4.2701073635241279E-3</v>
+        <v>4.7781783309354224E-3</v>
       </c>
       <c r="F50">
-        <v>4.1530416938734929</v>
+        <v>4.1440924034953355</v>
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A51">
-        <v>2</v>
+      <c r="A51" t="s">
+        <v>7</v>
       </c>
       <c r="B51" t="s">
         <v>6</v>
       </c>
       <c r="C51">
-        <v>-8.7531391009898034E-3</v>
+        <v>-1.076074565185094E-2</v>
       </c>
       <c r="D51">
-        <v>5.7912007575757611</v>
+        <v>5.3599599905517534</v>
       </c>
       <c r="E51">
-        <v>1.2095040392964112E-2</v>
+        <v>1.1624003835584495E-2</v>
       </c>
       <c r="F51">
-        <v>2.2832445707395084</v>
+        <v>2.2646315950933524</v>
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A52">
-        <v>2</v>
+      <c r="A52" t="s">
+        <v>7</v>
       </c>
       <c r="B52" t="s">
+        <v>10</v>
+      </c>
+      <c r="C52">
+        <v>-5.3962089805980459E-3</v>
+      </c>
+      <c r="D52">
+        <v>-1.9118095170240088</v>
+      </c>
+      <c r="E52">
+        <v>3.4313705722323264E-2</v>
+      </c>
+      <c r="F52">
+        <v>-1.4646478534602325</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
         <v>7</v>
       </c>
-      <c r="C52">
-        <v>-3.3816385084185544E-3</v>
-      </c>
-      <c r="D52">
-        <v>-1.4805687500000011</v>
-      </c>
-      <c r="E52">
-        <v>3.4742837978831688E-2</v>
-      </c>
-      <c r="F52">
-        <v>-1.4436645201695812</v>
-      </c>
-    </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A53">
-        <v>2</v>
-      </c>
       <c r="B53" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="C53">
-        <v>-7.213018507297787E-3</v>
+        <v>-9.2206250581589235E-3</v>
       </c>
       <c r="D53">
-        <v>3.1717829313543615</v>
+        <v>2.7405421643303538</v>
       </c>
       <c r="E53">
-        <v>9.7767079663217682E-2</v>
+        <v>9.7296043105838059E-2</v>
       </c>
       <c r="F53">
-        <v>0.72470329059108607</v>
+        <v>0.70609031494493024</v>
       </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A54">
-        <v>2</v>
+      <c r="A54" t="s">
+        <v>7</v>
       </c>
       <c r="B54" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="C54">
-        <v>-5.5542754646261648E-3</v>
+        <v>-7.5618820154873014E-3</v>
       </c>
       <c r="D54">
-        <v>4.033443181818182</v>
+        <v>3.6022024147941747</v>
       </c>
       <c r="E54">
-        <v>8.4010760089933745E-2</v>
+        <v>8.3539723532554122E-2</v>
       </c>
       <c r="F54">
-        <v>1.2006593434667803</v>
+        <v>1.1820463678206243</v>
       </c>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A55">
-        <v>2</v>
+      <c r="A55" t="s">
+        <v>7</v>
       </c>
       <c r="B55" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="C55">
-        <v>-9.1304901981684814E-3</v>
+        <v>-1.1138096749029618E-2</v>
       </c>
       <c r="D55">
-        <v>-0.10757366771159903</v>
+        <v>-0.53881443473560675</v>
       </c>
       <c r="E55">
-        <v>6.9081390967676709E-2</v>
+        <v>6.8610354410297086E-2</v>
       </c>
       <c r="F55">
-        <v>-1.1025822317683263</v>
+        <v>-1.121195207414482</v>
       </c>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A56">
-        <v>2</v>
+      <c r="A56" t="s">
+        <v>7</v>
       </c>
       <c r="B56" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="C56">
-        <v>-7.0751087979595041E-3</v>
+        <v>-9.0827153488206389E-3</v>
       </c>
       <c r="D56">
-        <v>1.8372121212121213</v>
+        <v>1.4059713541881136</v>
       </c>
       <c r="E56">
-        <v>5.2691631302054877E-2</v>
+        <v>5.2220594744675261E-2</v>
       </c>
       <c r="F56">
-        <v>0.28472184346678003</v>
+        <v>0.26610886782062421</v>
       </c>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A57">
-        <v>2</v>
+      <c r="A57" t="s">
+        <v>7</v>
       </c>
       <c r="B57" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="C57">
-        <v>-2.6205633434140492E-3</v>
+        <v>-4.6281698942751848E-3</v>
       </c>
       <c r="D57">
-        <v>0.39033333333333142</v>
+        <v>-4.0907433690676308E-2</v>
       </c>
       <c r="E57">
-        <v>6.7631025241448886E-2</v>
+        <v>6.7159988684069263E-2</v>
       </c>
       <c r="F57">
-        <v>-0.7886114898665525</v>
+        <v>-0.80722446551270832</v>
       </c>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A58">
-        <v>2</v>
+      <c r="A58" t="s">
+        <v>7</v>
       </c>
       <c r="B58" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="C58">
-        <v>-8.1872300100807125E-3</v>
+        <v>-1.0194836560941847E-2</v>
       </c>
       <c r="D58">
-        <v>-4.3027787878787871</v>
+        <v>-4.7340195549027948</v>
       </c>
       <c r="E58">
-        <v>-0.10039927778885413</v>
+        <v>-0.10087031434623374</v>
       </c>
       <c r="F58">
-        <v>-1.5226417928968539</v>
+        <v>-1.5412547685430096</v>
       </c>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A59">
-        <v>2</v>
+      <c r="A59" t="s">
+        <v>7</v>
       </c>
       <c r="B59" t="s">
         <v>55</v>
       </c>
       <c r="C59">
-        <v>-3.1423593646444349E-2</v>
+        <v>-1.5970161236266517E-2</v>
       </c>
       <c r="D59">
-        <v>-2.7901363636363636</v>
+        <v>-1.9358771306603721</v>
       </c>
       <c r="E59">
-        <v>-2.3293217182793577E-2</v>
+        <v>-3.5515335991255427E-2</v>
       </c>
       <c r="F59">
-        <v>-1.7257327019877653</v>
+        <v>-0.84402100230924548</v>
       </c>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A60">
-        <v>2</v>
+      <c r="A60" t="s">
+        <v>7</v>
       </c>
       <c r="B60" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="C60">
-        <v>-1.3720784949291923E-3</v>
+        <v>-3.3796850457903272E-3</v>
       </c>
       <c r="D60">
-        <v>0.45475454545454302</v>
+        <v>2.3513778430535318E-2</v>
       </c>
       <c r="E60">
-        <v>-0.1315598838494603</v>
+        <v>-0.13203092040683992</v>
       </c>
       <c r="F60">
-        <v>1.483115782860722</v>
+        <v>1.4645028072145663</v>
       </c>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A61">
-        <v>2</v>
+      <c r="A61" t="s">
+        <v>7</v>
       </c>
       <c r="B61" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="C61">
-        <v>1.0288527565676858E-2</v>
+        <v>8.2809210148157234E-3</v>
       </c>
       <c r="D61">
-        <v>-0.36093939393939289</v>
+        <v>-0.7921801609634006</v>
       </c>
       <c r="E61">
-        <v>-6.3083686979449631E-3</v>
+        <v>-6.7794052553245806E-3</v>
       </c>
       <c r="F61">
-        <v>2.2903661648598309E-2</v>
+        <v>4.2906860024424535E-3</v>
       </c>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A62">
-        <v>2</v>
+      <c r="A62" t="s">
+        <v>7</v>
       </c>
       <c r="B62" t="s">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="C62">
-        <v>-1.3862987585838291E-2</v>
+        <v>-1.5870594136699428E-2</v>
       </c>
       <c r="D62">
-        <v>1.9033636363636335</v>
+        <v>1.4721228693396258</v>
       </c>
       <c r="E62">
-        <v>-9.5204899100662255E-3</v>
+        <v>-9.991526467445843E-3</v>
       </c>
       <c r="F62">
-        <v>1.1938127525576911</v>
+        <v>1.1751997769115354</v>
       </c>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A63">
-        <v>2</v>
+      <c r="A63" t="s">
+        <v>7</v>
       </c>
       <c r="B63" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C63">
-        <v>4.2354972626465603E-3</v>
+        <v>-4.1707669490394818E-3</v>
       </c>
       <c r="D63">
-        <v>-1.6990681818181812</v>
+        <v>-1.8943825167471511</v>
       </c>
       <c r="E63">
-        <v>-9.3543217182793584E-2</v>
+        <v>-8.5776133508862526E-2</v>
       </c>
       <c r="F63">
-        <v>-0.13641452016958208</v>
+        <v>-6.5699426919981749E-2</v>
       </c>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A64">
-        <v>2</v>
+      <c r="A64" t="s">
+        <v>7</v>
       </c>
       <c r="B64" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C64">
-        <v>8.0859308574238555E-4</v>
+        <v>-1.1990134651187504E-3</v>
       </c>
       <c r="D64">
-        <v>-0.73398280098280044</v>
+        <v>-1.1652235680068082</v>
       </c>
       <c r="E64">
-        <v>5.6481967092390756E-2</v>
+        <v>5.601093053501114E-2</v>
       </c>
       <c r="F64">
-        <v>-0.95301771427277582</v>
+        <v>-0.97163068991893164</v>
       </c>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A65">
-        <v>2</v>
+      <c r="A65" t="s">
+        <v>7</v>
       </c>
       <c r="B65" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C65">
-        <v>-2.2569269797776876E-3</v>
+        <v>-4.2645335306388237E-3</v>
       </c>
       <c r="D65">
-        <v>0.80921212121211805</v>
+        <v>0.37797135418810995</v>
       </c>
       <c r="E65">
-        <v>-8.0884126273702617E-2</v>
+        <v>-8.1355162831082239E-2</v>
       </c>
       <c r="F65">
-        <v>1.4729036616486015</v>
+        <v>1.4542906860024456</v>
       </c>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A66">
-        <v>2</v>
+      <c r="A66" t="s">
+        <v>7</v>
       </c>
       <c r="B66" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C66">
-        <v>1.1480211850384408E-2</v>
+        <v>9.472605299523271E-3</v>
       </c>
       <c r="D66">
-        <v>0.15861310782240973</v>
+        <v>-0.27262765920159798</v>
       </c>
       <c r="E66">
-        <v>-7.1120912743047271E-2</v>
+        <v>-7.1591949300426894E-2</v>
       </c>
       <c r="F66">
-        <v>0.40742797454500668</v>
+        <v>0.38881499889885079</v>
       </c>
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A67">
-        <v>2</v>
+      <c r="A67" t="s">
+        <v>7</v>
       </c>
       <c r="B67" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C67">
-        <v>-2.9424963409670354E-4</v>
+        <v>-2.3412500653739688E-3</v>
       </c>
       <c r="D67">
-        <v>-2.4971060606060602</v>
+        <v>-2.9283468276300679</v>
       </c>
       <c r="E67">
-        <v>-0.19125690209888829</v>
+        <v>-0.19171851763999576</v>
       </c>
       <c r="F67">
-        <v>0.52508547983041753</v>
+        <v>0.47195837958426878</v>
       </c>
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A68">
-        <v>2</v>
+      <c r="A68" t="s">
+        <v>7</v>
       </c>
       <c r="B68" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C68">
-        <v>1.1955194232343523E-2</v>
+        <v>9.9475876814823887E-3</v>
       </c>
       <c r="D68">
-        <v>-2.0366363636363647</v>
+        <v>-2.4678771306603724</v>
       </c>
       <c r="E68">
-        <v>6.8964358574782211E-2</v>
+        <v>6.8493322017402603E-2</v>
       </c>
       <c r="F68">
-        <v>-2.0386114898665504</v>
+        <v>-2.0572244655127063</v>
       </c>
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A69">
-        <v>2</v>
+      <c r="A69" t="s">
+        <v>7</v>
       </c>
       <c r="B69" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C69">
-        <v>-7.0566152254945627E-3</v>
+        <v>-9.1036156567718286E-3</v>
       </c>
       <c r="D69">
-        <v>3.4864741935483883</v>
+        <v>3.0552334265243806</v>
       </c>
       <c r="E69">
-        <v>-0.14830871050553529</v>
+        <v>-0.14877032604664275</v>
       </c>
       <c r="F69">
-        <v>3.0533435443465469</v>
+        <v>3.0002164441003982</v>
       </c>
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A70">
-        <v>2</v>
+      <c r="A70" t="s">
+        <v>7</v>
       </c>
       <c r="B70" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C70">
-        <v>1.1349133626282919E-2</v>
+        <v>9.3415270754217822E-3</v>
       </c>
       <c r="D70">
-        <v>-7.248011363636632E-2</v>
+        <v>-0.50372088066037402</v>
       </c>
       <c r="E70">
-        <v>-0.14212560354642997</v>
+        <v>-0.1425966401038096</v>
       </c>
       <c r="F70">
-        <v>1.3827332071031444</v>
+        <v>1.3641202314569885</v>
       </c>
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A71">
-        <v>2</v>
+      <c r="A71" t="s">
+        <v>7</v>
       </c>
       <c r="B71" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C71">
-        <v>1.6379436656585956E-2</v>
+        <v>1.4371830105724816E-2</v>
       </c>
       <c r="D71">
-        <v>2.5270000000000024</v>
+        <v>2.0957592329759946</v>
       </c>
       <c r="E71">
-        <v>3.8631025241448833E-2</v>
+        <v>3.8159988684069217E-2</v>
       </c>
       <c r="F71">
-        <v>0.56290366164860073</v>
+        <v>0.54429068600244479</v>
       </c>
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A72">
-        <v>2</v>
+      <c r="A72" t="s">
+        <v>7</v>
       </c>
       <c r="B72" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="C72">
-        <v>1.1079730787710386E-2</v>
+        <v>9.104952470529358E-3</v>
       </c>
       <c r="D72">
-        <v>4.1657395833333331</v>
+        <v>3.7344988163093249</v>
       </c>
       <c r="E72">
-        <v>3.753857832809334E-2</v>
+        <v>3.7059690923820256E-2</v>
       </c>
       <c r="F72">
-        <v>1.8026479798304196</v>
+        <v>1.8127967746842575</v>
       </c>
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A73">
-        <v>2</v>
+      <c r="A73" t="s">
+        <v>7</v>
       </c>
       <c r="B73" t="s">
-        <v>27</v>
+        <v>8</v>
       </c>
       <c r="C73">
-        <v>2.9227921505070809E-2</v>
+        <v>2.7220314954209672E-2</v>
       </c>
       <c r="D73">
-        <v>-5.2651515151515165</v>
+        <v>-5.6963922821755242</v>
       </c>
       <c r="E73">
-        <v>7.3540116150539583E-2</v>
+        <v>7.3069079593159975E-2</v>
       </c>
       <c r="F73">
-        <v>-2.9716417928968548</v>
+        <v>-2.9902547685430108</v>
       </c>
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A74">
-        <v>2</v>
+      <c r="A74" t="s">
+        <v>7</v>
       </c>
       <c r="B74" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C74">
-        <v>-8.0758247678451682E-3</v>
+        <v>-1.0050603085026196E-2</v>
       </c>
       <c r="D74">
-        <v>5.0081111111111074</v>
+        <v>4.5768703440870997</v>
       </c>
       <c r="E74">
-        <v>0.11466288388364886</v>
+        <v>0.11418399647937577</v>
       </c>
       <c r="F74">
-        <v>1.4418632576081949</v>
+        <v>1.4520120524620332</v>
       </c>
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A75">
-        <v>2</v>
+      <c r="A75" t="s">
+        <v>7</v>
       </c>
       <c r="B75" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C75">
-        <v>4.7148841548241569E-3</v>
+        <v>2.7072776039630208E-3</v>
       </c>
       <c r="D75">
-        <v>7.517799154334039</v>
+        <v>7.0865583873100313</v>
       </c>
       <c r="E75">
-        <v>9.5767616755575036E-3</v>
+        <v>9.1057251181778862E-3</v>
       </c>
       <c r="F75">
-        <v>3.2418465791961677</v>
+        <v>3.2232336035500118</v>
       </c>
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A76">
-        <v>2</v>
+      <c r="A76" t="s">
+        <v>7</v>
       </c>
       <c r="B76" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C76">
-        <v>5.8491336262829294E-3</v>
+        <v>3.8415270754217938E-3</v>
       </c>
       <c r="D76">
-        <v>2.434477272727273</v>
+        <v>2.0032365057032653</v>
       </c>
       <c r="E76">
-        <v>0.12679769190811535</v>
+        <v>0.12632665535073573</v>
       </c>
       <c r="F76">
-        <v>-8.0732701987764735E-2</v>
+        <v>-9.934567763392059E-2</v>
       </c>
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A77">
-        <v>2</v>
+      <c r="A77" t="s">
+        <v>7</v>
       </c>
       <c r="B77" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C77">
-        <v>5.5915578687071648E-3</v>
+        <v>3.5839513178460287E-3</v>
       </c>
       <c r="D77">
-        <v>6.3748181818181786</v>
+        <v>5.9435774147941709</v>
       </c>
       <c r="E77">
-        <v>-8.7126550516126777E-2</v>
+        <v>-8.75975870735064E-2</v>
       </c>
       <c r="F77">
-        <v>4.0929036616485988</v>
+        <v>4.0742906860024428</v>
       </c>
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A78">
-        <v>2</v>
+      <c r="A78" t="s">
+        <v>7</v>
       </c>
       <c r="B78" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C78">
-        <v>7.0082245353738255E-3</v>
+        <v>5.0006179845126899E-3</v>
       </c>
       <c r="D78">
-        <v>5.0665681818181802</v>
+        <v>4.6353274147941725</v>
       </c>
       <c r="E78">
-        <v>6.9684055544479095E-2</v>
+        <v>6.9213018987099473E-2</v>
       </c>
       <c r="F78">
-        <v>1.8008582071031476</v>
+        <v>1.7822452314569917</v>
       </c>
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A79">
-        <v>2</v>
+      <c r="A79" t="s">
+        <v>7</v>
       </c>
       <c r="B79" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C79">
-        <v>1.1589537666686968E-2</v>
+        <v>9.5819311158258317E-3</v>
       </c>
       <c r="D79">
-        <v>2.7255797979797967</v>
+        <v>2.2943390309557889</v>
       </c>
       <c r="E79">
-        <v>7.4055267665691232E-2</v>
+        <v>7.358423110831161E-2</v>
       </c>
       <c r="F79">
-        <v>0.6117117424566807</v>
+        <v>0.59309876681052487</v>
       </c>
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A80">
-        <v>2</v>
+      <c r="A80" t="s">
+        <v>7</v>
       </c>
       <c r="B80" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C80">
-        <v>2.4201563535556493E-3</v>
+        <v>4.1254980269451319E-4</v>
       </c>
       <c r="D80">
-        <v>2.1876278409090903</v>
+        <v>1.7563870738850829</v>
       </c>
       <c r="E80">
-        <v>3.1334623726297292E-2</v>
+        <v>3.0863587168917673E-2</v>
       </c>
       <c r="F80">
-        <v>0.32605707073950962</v>
+        <v>0.30744409509335374</v>
       </c>
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A81">
-        <v>2</v>
+      <c r="A81" t="s">
+        <v>7</v>
       </c>
       <c r="B81" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C81">
-        <v>3.0622018081011022E-3</v>
+        <v>1.0545952572399665E-3</v>
       </c>
       <c r="D81">
-        <v>-1.0794801136363659</v>
+        <v>-1.5107208806603736</v>
       </c>
       <c r="E81">
-        <v>-2.9574467182793492E-2</v>
+        <v>-3.0045503740173108E-2</v>
       </c>
       <c r="F81">
-        <v>-0.2559315656241265</v>
+        <v>-0.27454454127028233</v>
       </c>
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A82">
-        <v>2</v>
+      <c r="A82" t="s">
+        <v>7</v>
       </c>
       <c r="B82" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C82">
-        <v>-2.0843336220363533E-2</v>
+        <v>-2.2821460990226691E-2</v>
       </c>
       <c r="D82">
-        <v>1.5818592375366594</v>
+        <v>1.1506184705126516</v>
       </c>
       <c r="E82">
-        <v>-4.8689903311374898E-2</v>
+        <v>-4.9131409610028112E-2</v>
       </c>
       <c r="F82">
-        <v>1.3008802012380427</v>
+        <v>1.3114888319150664</v>
       </c>
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A83">
-        <v>2</v>
+      <c r="A83" t="s">
+        <v>7</v>
       </c>
       <c r="B83" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C83">
-        <v>-2.8723001008071282E-4</v>
+        <v>-2.2948365609418487E-3</v>
       </c>
       <c r="D83">
-        <v>-1.6914242424242387</v>
+        <v>-2.1226650094482462</v>
       </c>
       <c r="E83">
-        <v>-6.9217459607036028E-2</v>
+        <v>-6.968849616441565E-2</v>
       </c>
       <c r="F83">
-        <v>-0.52103573229079392</v>
+        <v>-0.53964870793694975</v>
       </c>
     </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A84">
-        <v>2</v>
+      <c r="A84" t="s">
+        <v>7</v>
       </c>
       <c r="B84" t="s">
-        <v>38</v>
+        <v>9</v>
       </c>
       <c r="C84">
-        <v>2.0561254838404139E-2</v>
+        <v>1.8553648287543006E-2</v>
       </c>
       <c r="D84">
-        <v>-0.10512121212121399</v>
+        <v>-0.53636197914522166</v>
       </c>
       <c r="E84">
-        <v>-8.2853823243399502E-2</v>
+        <v>-8.3324859800779111E-2</v>
       </c>
       <c r="F84">
-        <v>0.40987335861829782</v>
+        <v>0.39126038297214194</v>
       </c>
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A85">
-        <v>2</v>
+      <c r="A85" t="s">
+        <v>7</v>
       </c>
       <c r="B85" t="s">
         <v>39</v>
       </c>
       <c r="C85">
-        <v>-3.4690481918989002E-3</v>
+        <v>-5.4766547427600358E-3</v>
       </c>
       <c r="D85">
-        <v>3.1580303030303023</v>
+        <v>2.7267895360062946</v>
       </c>
       <c r="E85">
-        <v>9.5540116150539728E-2</v>
+        <v>9.5069079593160119E-2</v>
       </c>
       <c r="F85">
-        <v>0.70684305558799498</v>
+        <v>0.68823007994183916</v>
       </c>
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A86">
-        <v>2</v>
+      <c r="A86" t="s">
+        <v>7</v>
       </c>
       <c r="B86" t="s">
         <v>40</v>
       </c>
       <c r="C86">
-        <v>-1.6624717895778103E-3</v>
+        <v>-3.6700783404389464E-3</v>
       </c>
       <c r="D86">
-        <v>2.5030193423597655</v>
+        <v>2.0717785753357578</v>
       </c>
       <c r="E86">
-        <v>0.11984508068954682</v>
+        <v>0.11937404413216721</v>
       </c>
       <c r="F86">
-        <v>-0.48402090314830493</v>
+        <v>-0.50263387879446075</v>
       </c>
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A87">
-        <v>2</v>
+      <c r="A87" t="s">
+        <v>7</v>
       </c>
       <c r="B87" t="s">
         <v>41</v>
       </c>
       <c r="C87">
-        <v>2.4097396868889898E-3</v>
+        <v>4.0213313602785396E-4</v>
       </c>
       <c r="D87">
-        <v>6.1181818181819961E-2</v>
+        <v>-0.37005894884218776</v>
       </c>
       <c r="E87">
-        <v>-0.17021745960703599</v>
+        <v>-0.17068849616441562</v>
       </c>
       <c r="F87">
-        <v>1.0635097222546603</v>
+        <v>1.0448967466085046</v>
       </c>
     </row>
     <row r="88" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A88">
-        <v>2</v>
+      <c r="A88" t="s">
+        <v>7</v>
       </c>
       <c r="B88" t="s">
         <v>42</v>
       </c>
       <c r="C88">
-        <v>7.3989869987169379E-3</v>
+        <v>5.3913804478558014E-3</v>
       </c>
       <c r="D88">
-        <v>1.8266099706744834</v>
+        <v>1.3953692036504757</v>
       </c>
       <c r="E88">
-        <v>-0.19908940486607798</v>
+        <v>-0.19956044142345761</v>
       </c>
       <c r="F88">
-        <v>2.5917599666339357</v>
+        <v>2.5731469909877802</v>
       </c>
     </row>
     <row r="89" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A89">
-        <v>2</v>
+      <c r="A89" t="s">
+        <v>7</v>
       </c>
       <c r="B89" t="s">
         <v>43</v>
       </c>
       <c r="C89">
-        <v>4.7610654444647455E-3</v>
+        <v>2.7534588936036094E-3</v>
       </c>
       <c r="D89">
-        <v>-2.4048153409090927</v>
+        <v>-2.8360561079331004</v>
       </c>
       <c r="E89">
-        <v>8.9684055544479252E-2</v>
+        <v>8.9213018987099643E-2</v>
       </c>
       <c r="F89">
-        <v>-2.746869065624129</v>
+        <v>-2.765482041270285</v>
       </c>
     </row>
     <row r="90" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A90">
-        <v>2</v>
+      <c r="A90" t="s">
+        <v>7</v>
       </c>
       <c r="B90" t="s">
         <v>44</v>
       </c>
       <c r="C90">
-        <v>-1.6898223667585994E-2</v>
+        <v>-1.890583021844713E-2</v>
       </c>
       <c r="D90">
-        <v>8.5174756871035928</v>
+        <v>8.0862349200795851</v>
       </c>
       <c r="E90">
-        <v>-1.4676357874448189E-3</v>
+        <v>-1.9386723448244366E-3</v>
       </c>
       <c r="F90">
-        <v>4.1089924565746054</v>
+        <v>4.0903794809284504</v>
       </c>
     </row>
     <row r="91" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A91">
-        <v>2</v>
+      <c r="A91" t="s">
+        <v>7</v>
       </c>
       <c r="B91" t="s">
         <v>45</v>
       </c>
       <c r="C91">
-        <v>1.4264567030088417E-2</v>
+        <v>1.2256960479227282E-2</v>
       </c>
       <c r="D91">
-        <v>6.2419619450317105</v>
+        <v>5.8107211780077028</v>
       </c>
       <c r="E91">
-        <v>0.19096153968824239</v>
+        <v>0.19049050313086277</v>
       </c>
       <c r="F91">
-        <v>1.1281045073145628</v>
+        <v>1.1094915316684071</v>
       </c>
     </row>
     <row r="92" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A92">
-        <v>2</v>
+      <c r="A92" t="s">
+        <v>7</v>
       </c>
       <c r="B92" t="s">
         <v>46</v>
       </c>
       <c r="C92">
-        <v>9.0890913429848286E-3</v>
+        <v>7.081484792123692E-3</v>
       </c>
       <c r="D92">
-        <v>-1.262027484143762</v>
+        <v>-1.6932682511677697</v>
       </c>
       <c r="E92">
-        <v>8.4177184508538408E-2</v>
+        <v>8.3706147951158799E-2</v>
       </c>
       <c r="F92">
-        <v>-1.8949821734465375</v>
+        <v>-1.9135951490926932</v>
       </c>
     </row>
     <row r="93" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A93">
-        <v>2</v>
+      <c r="A93" t="s">
+        <v>7</v>
       </c>
       <c r="B93" t="s">
         <v>47</v>
       </c>
       <c r="C93">
-        <v>9.2239321840851159E-3</v>
+        <v>7.1769317528078509E-3</v>
       </c>
       <c r="D93">
-        <v>-4.2834393939393944</v>
+        <v>-4.7146801609634021</v>
       </c>
       <c r="E93">
-        <v>0.16934915850717247</v>
+        <v>0.16888754296606501</v>
       </c>
       <c r="F93">
-        <v>-4.5191872474423107</v>
+        <v>-4.5723143476884589</v>
       </c>
     </row>
     <row r="94" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A94">
-        <v>2</v>
+      <c r="A94" t="s">
+        <v>7</v>
       </c>
       <c r="B94" t="s">
         <v>48</v>
       </c>
       <c r="C94">
-        <v>2.0735497262646566E-2</v>
+        <v>1.872789071178543E-2</v>
       </c>
       <c r="D94">
-        <v>-3.6915454545454547</v>
+        <v>-4.1227862215694628</v>
       </c>
       <c r="E94">
-        <v>2.6570419180842807E-2</v>
+        <v>2.6099382623463188E-2</v>
       </c>
       <c r="F94">
-        <v>-2.6784599747150377</v>
+        <v>-2.6970729503611937</v>
       </c>
     </row>
     <row r="95" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A95">
-        <v>2</v>
+      <c r="A95" t="s">
+        <v>7</v>
       </c>
       <c r="B95" t="s">
         <v>49</v>
       </c>
       <c r="C95">
-        <v>-5.8895027373534392E-3</v>
+        <v>-7.8971092882145748E-3</v>
       </c>
       <c r="D95">
-        <v>-4.4476022727272717</v>
+        <v>-4.8788430397512794</v>
       </c>
       <c r="E95">
-        <v>1.4942578271751767E-2</v>
+        <v>1.4471541714372149E-2</v>
       </c>
       <c r="F95">
-        <v>-2.2066133838059461</v>
+        <v>-2.225226359452102</v>
       </c>
     </row>
     <row r="96" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A96">
-        <v>2</v>
+      <c r="A96" t="s">
+        <v>7</v>
       </c>
       <c r="B96" t="s">
         <v>50</v>
       </c>
       <c r="C96">
-        <v>1.3692036337606682E-2</v>
+        <v>1.1684429786745545E-2</v>
       </c>
       <c r="D96">
-        <v>-4.8065247208931421</v>
+        <v>-5.2377654879171498</v>
       </c>
       <c r="E96">
-        <v>0.15331364087143301</v>
+        <v>0.15284260431405339</v>
       </c>
       <c r="F96">
-        <v>-3.9890261629128032</v>
+        <v>-4.0076391385589591</v>
       </c>
     </row>
     <row r="97" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A97">
-        <v>2</v>
+      <c r="A97" t="s">
+        <v>7</v>
       </c>
       <c r="B97" t="s">
         <v>51</v>
       </c>
       <c r="C97">
-        <v>1.8561254838404134E-2</v>
+        <v>1.6553648287542997E-2</v>
       </c>
       <c r="D97">
-        <v>-4.1578787878787873</v>
+        <v>-4.589119554902795</v>
       </c>
       <c r="E97">
-        <v>6.8431464535699711E-3</v>
+        <v>6.3721098961903536E-3</v>
       </c>
       <c r="F97">
-        <v>-2.2816417928968549</v>
+        <v>-2.3002547685430108</v>
       </c>
     </row>
     <row r="98" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A98">
-        <v>2</v>
+      <c r="A98" t="s">
+        <v>7</v>
       </c>
       <c r="B98" t="s">
         <v>52</v>
       </c>
       <c r="C98">
-        <v>-4.9841997070504051E-3</v>
+        <v>-6.9918062579115408E-3</v>
       </c>
       <c r="D98">
-        <v>-1.7773939393939424</v>
+        <v>-2.2086347064179503</v>
       </c>
       <c r="E98">
-        <v>-0.11645988384946029</v>
+        <v>-0.11693092040683992</v>
       </c>
       <c r="F98">
-        <v>3.7146085891024777E-2</v>
+        <v>1.8533110244868922E-2</v>
       </c>
     </row>
     <row r="99" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A99">
-        <v>2</v>
+      <c r="A99" t="s">
+        <v>7</v>
       </c>
       <c r="B99" t="s">
         <v>53</v>
       </c>
       <c r="C99">
-        <v>-1.1681169404020105E-2</v>
+        <v>-1.368877595488124E-2</v>
       </c>
       <c r="D99">
-        <v>-1.0568484848484856</v>
+        <v>-1.4880892518724933</v>
       </c>
       <c r="E99">
-        <v>-7.9823520213096411E-2</v>
+        <v>-8.0294556770476033E-2</v>
       </c>
       <c r="F99">
-        <v>-0.33679330804837027</v>
+        <v>-0.35540628369452615</v>
       </c>
     </row>
     <row r="100" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A100">
-        <v>2</v>
+      <c r="A100" t="s">
+        <v>7</v>
       </c>
       <c r="B100" t="s">
         <v>54</v>
       </c>
       <c r="C100">
-        <v>7.5020314499949392E-4</v>
+        <v>-1.2574034058616421E-3</v>
       </c>
       <c r="D100">
-        <v>-3.249491978609627</v>
+        <v>-3.6807327456336347</v>
       </c>
       <c r="E100">
-        <v>-4.4829739669727253E-4</v>
+        <v>-9.1933395407689013E-4</v>
       </c>
       <c r="F100">
-        <v>-1.8038877822016666</v>
+        <v>-1.8225007578478223</v>
       </c>
     </row>
     <row r="101" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A101">
-        <v>3</v>
+      <c r="A101" t="s">
+        <v>8</v>
       </c>
       <c r="B101" t="s">
         <v>6</v>
       </c>
       <c r="C101">
-        <v>1.7923154444647428E-3</v>
+        <v>2.7758206417194902E-4</v>
       </c>
       <c r="D101">
-        <v>-3.1447992424242384</v>
+        <v>-4.1541770435083309</v>
       </c>
       <c r="E101">
-        <v>-0.16051327036103016</v>
+        <v>-0.16060120190411939</v>
       </c>
       <c r="F101">
-        <v>-0.74637856563079918</v>
+        <v>-0.72316034216327119</v>
       </c>
     </row>
     <row r="102" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A102">
-        <v>3</v>
+      <c r="A102" t="s">
+        <v>8</v>
       </c>
       <c r="B102" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="C102">
-        <v>9.070724535373836E-3</v>
+        <v>7.5559911550810424E-3</v>
       </c>
       <c r="D102">
-        <v>6.116940340909089</v>
+        <v>5.1075625398249969</v>
       </c>
       <c r="E102">
-        <v>8.2689266086666061E-3</v>
+        <v>8.1809950655773855E-3</v>
       </c>
       <c r="F102">
-        <v>2.0168032525510204</v>
+        <v>2.0400214760185484</v>
       </c>
     </row>
     <row r="103" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A103">
-        <v>3</v>
+      <c r="A103" t="s">
+        <v>8</v>
       </c>
       <c r="B103" t="s">
+        <v>11</v>
+      </c>
+      <c r="C103">
+        <v>1.4817702657863968E-2</v>
+      </c>
+      <c r="D103">
+        <v>5.4084051302702685</v>
+      </c>
+      <c r="E103">
+        <v>6.6798110093406887E-2</v>
+      </c>
+      <c r="F103">
+        <v>1.9982983776883072</v>
+      </c>
+    </row>
+    <row r="104" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A104" t="s">
         <v>8</v>
       </c>
-      <c r="C103">
-        <v>1.6332436038156761E-2</v>
-      </c>
-      <c r="D103">
-        <v>6.4177829313543606</v>
-      </c>
-      <c r="E103">
-        <v>6.6886041636496113E-2</v>
-      </c>
-      <c r="F103">
-        <v>1.9750801542207792</v>
-      </c>
-    </row>
-    <row r="104" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A104">
-        <v>3</v>
-      </c>
       <c r="B104" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="C104">
-        <v>-1.9262556793730873E-2</v>
+        <v>-2.0740780842393211E-2</v>
       </c>
       <c r="D104">
-        <v>-0.94687499999999969</v>
+        <v>-1.9562528010840918</v>
       </c>
       <c r="E104">
-        <v>-1.1197205774978536E-2</v>
+        <v>-1.1334107381143066E-2</v>
       </c>
       <c r="F104">
-        <v>-0.89250924744898263</v>
+        <v>-0.84103507288696444</v>
       </c>
     </row>
     <row r="105" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A105">
-        <v>3</v>
+      <c r="A105" t="s">
+        <v>8</v>
       </c>
       <c r="B105" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="C105">
-        <v>-2.8339931287212159E-2</v>
+        <v>-2.9826437806262776E-2</v>
       </c>
       <c r="D105">
-        <v>-0.29710775862069072</v>
+        <v>-1.3064855597047829</v>
       </c>
       <c r="E105">
-        <v>0.13359205832000731</v>
+        <v>0.13354767495025194</v>
       </c>
       <c r="F105">
-        <v>-1.5734553681386345</v>
+        <v>-1.5208430999142324</v>
       </c>
     </row>
     <row r="106" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A106">
-        <v>3</v>
+      <c r="A106" t="s">
+        <v>8</v>
       </c>
       <c r="B106" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="C106">
-        <v>-1.0893290616141322E-2</v>
+        <v>-1.2408023996434115E-2</v>
       </c>
       <c r="D106">
-        <v>4.6674848484848503</v>
+        <v>3.6581070474007586</v>
       </c>
       <c r="E106">
-        <v>-0.10164395217921207</v>
+        <v>-0.1017318837223013</v>
       </c>
       <c r="F106">
-        <v>2.6314623434601092</v>
+        <v>2.6546805669276372</v>
       </c>
     </row>
     <row r="107" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A107">
-        <v>3</v>
+      <c r="A107" t="s">
+        <v>8</v>
       </c>
       <c r="B107" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="C107">
-        <v>-8.023815252322299E-4</v>
+        <v>-2.3171149055250238E-3</v>
       </c>
       <c r="D107">
-        <v>1.0465151515151512</v>
+        <v>3.7137350431059056E-2</v>
       </c>
       <c r="E107">
-        <v>-8.4522740057999923E-2</v>
+        <v>-8.4610671601089135E-2</v>
       </c>
       <c r="F107">
-        <v>0.60812901012677711</v>
+        <v>0.63134723359430511</v>
       </c>
     </row>
     <row r="108" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A108">
-        <v>3</v>
+      <c r="A108" t="s">
+        <v>8</v>
       </c>
       <c r="B108" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="C108">
-        <v>3.2673154444647409E-3</v>
+        <v>1.7525820641719468E-3</v>
       </c>
       <c r="D108">
-        <v>1.8183121212121223</v>
+        <v>0.80893432012803013</v>
       </c>
       <c r="E108">
-        <v>8.5628775093515311E-2</v>
+        <v>8.5540843550426085E-2</v>
       </c>
       <c r="F108">
-        <v>-0.40499220199443459</v>
+        <v>-0.38177397852690653</v>
       </c>
     </row>
     <row r="109" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A109">
-        <v>3</v>
+      <c r="A109" t="s">
+        <v>8</v>
       </c>
       <c r="B109" t="s">
         <v>55</v>
       </c>
       <c r="C109">
-        <v>3.1576406353555644E-2</v>
+        <v>1.4761146914718182E-2</v>
       </c>
       <c r="D109">
-        <v>2.7901363636363636</v>
+        <v>0.64572219891590699</v>
       </c>
       <c r="E109">
-        <v>5.1643926608666686E-2</v>
+        <v>6.5399133763157646E-2</v>
       </c>
       <c r="F109">
-        <v>0.77737143436919998</v>
+        <v>-9.05997914385889E-2</v>
       </c>
     </row>
     <row r="110" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A110">
-        <v>3</v>
+      <c r="A110" t="s">
+        <v>8</v>
       </c>
       <c r="B110" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="C110">
-        <v>8.7804007412049193E-3</v>
+        <v>7.348235788340313E-3</v>
       </c>
       <c r="D110">
-        <v>6.3451749999999976</v>
+        <v>5.3357971989159054</v>
       </c>
       <c r="E110">
-        <v>2.4732850207645707E-2</v>
+        <v>2.4574873882957204E-2</v>
       </c>
       <c r="F110">
-        <v>2.6312199192176875</v>
+        <v>2.7221150733658215</v>
       </c>
     </row>
     <row r="111" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A111">
-        <v>3</v>
+      <c r="A111" t="s">
+        <v>8</v>
       </c>
       <c r="B111" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="C111">
-        <v>-1.7075108797959506E-2</v>
+        <v>-1.8589842178252301E-2</v>
       </c>
       <c r="D111">
-        <v>1.9515151515153081E-2</v>
+        <v>-0.9898626495689391</v>
       </c>
       <c r="E111">
-        <v>-8.2462133997393841E-2</v>
+        <v>-8.2550065540483067E-2</v>
       </c>
       <c r="F111">
-        <v>-0.31490129290352797</v>
+        <v>-0.29168306943599992</v>
       </c>
     </row>
     <row r="112" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A112">
-        <v>3</v>
+      <c r="A112" t="s">
+        <v>8</v>
       </c>
       <c r="B112" t="s">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="C112">
-        <v>1.0591557868707161E-2</v>
+        <v>9.0768244884143687E-3</v>
       </c>
       <c r="D112">
-        <v>3.8944545454545429</v>
+        <v>2.8850767443704508</v>
       </c>
       <c r="E112">
-        <v>6.9962108426848607E-2</v>
+        <v>6.9874176883759395E-2</v>
       </c>
       <c r="F112">
-        <v>0.58418961618738396</v>
+        <v>0.60740783965491196</v>
       </c>
     </row>
     <row r="113" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A113">
-        <v>3</v>
+      <c r="A113" t="s">
+        <v>8</v>
       </c>
       <c r="B113" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C113">
-        <v>-7.4463209191716227E-3</v>
+        <v>-2.9266991197603957E-3</v>
       </c>
       <c r="D113">
-        <v>0.42275000000000063</v>
+        <v>-0.88906067634836106</v>
       </c>
       <c r="E113">
-        <v>5.2803017517757601E-2</v>
+        <v>4.0341407327733989E-2</v>
       </c>
       <c r="F113">
-        <v>-1.1814922019944354</v>
+        <v>-1.2331418432203523</v>
       </c>
     </row>
     <row r="114" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A114">
-        <v>3</v>
+      <c r="A114" t="s">
+        <v>8</v>
       </c>
       <c r="B114" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C114">
-        <v>1.7444956722106022E-2</v>
+        <v>1.5930223341813231E-2</v>
       </c>
       <c r="D114">
-        <v>-1.8078918918918916</v>
+        <v>-2.8172696929759837</v>
       </c>
       <c r="E114">
-        <v>3.3600929065669222E-2</v>
+        <v>3.3512997522579996E-2</v>
       </c>
       <c r="F114">
-        <v>-2.0226408506430831</v>
+        <v>-1.9994226271755551</v>
       </c>
     </row>
     <row r="115" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A115">
-        <v>3</v>
+      <c r="A115" t="s">
+        <v>8</v>
       </c>
       <c r="B115" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C115">
-        <v>-1.4387451615958675E-3</v>
+        <v>-2.9534785418886614E-3</v>
       </c>
       <c r="D115">
-        <v>1.1336666666666644</v>
+        <v>0.1242888655825722</v>
       </c>
       <c r="E115">
-        <v>4.7871199335939467E-2</v>
+        <v>4.7783267792850248E-2</v>
       </c>
       <c r="F115">
-        <v>-0.47762856563079725</v>
+        <v>-0.45441034216326914</v>
       </c>
     </row>
     <row r="116" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A116">
-        <v>3</v>
+      <c r="A116" t="s">
+        <v>8</v>
       </c>
       <c r="B116" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C116">
-        <v>2.7571120941293499E-2</v>
+        <v>2.6056387561000705E-2</v>
       </c>
       <c r="D116">
-        <v>-3.5989323467230454</v>
+        <v>-4.6083101478071375</v>
       </c>
       <c r="E116">
-        <v>-6.9001950769768797E-2</v>
+        <v>-6.9089882312858023E-2</v>
       </c>
       <c r="F116">
-        <v>-2.1285587981889371</v>
+        <v>-2.1053405747214091</v>
       </c>
     </row>
     <row r="117" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A117">
-        <v>3</v>
+      <c r="A117" t="s">
+        <v>8</v>
       </c>
       <c r="B117" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C117">
-        <v>-2.22662394947465E-3</v>
+        <v>-3.7413573297674437E-3</v>
       </c>
       <c r="D117">
-        <v>5.6877575757575753</v>
+        <v>4.6783797746734832</v>
       </c>
       <c r="E117">
-        <v>9.1749987214727172E-2</v>
+        <v>9.166205567163796E-2</v>
       </c>
       <c r="F117">
-        <v>1.3087350707328367</v>
+        <v>1.3319532942003649</v>
       </c>
     </row>
     <row r="118" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A118">
-        <v>3</v>
+      <c r="A118" t="s">
+        <v>8</v>
       </c>
       <c r="B118" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C118">
-        <v>-8.9538966767473849E-3</v>
+        <v>-1.0468630057040178E-2</v>
       </c>
       <c r="D118">
-        <v>4.1399999999999988</v>
+        <v>3.1306221989159067</v>
       </c>
       <c r="E118">
-        <v>-0.20682577036103025</v>
+        <v>-0.20691370190411948</v>
       </c>
       <c r="F118">
-        <v>3.9581290101267785</v>
+        <v>3.9813472335943065</v>
       </c>
     </row>
     <row r="119" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A119">
-        <v>3</v>
+      <c r="A119" t="s">
+        <v>8</v>
       </c>
       <c r="B119" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C119">
-        <v>-1.3253531772361475E-3</v>
+        <v>-2.8400865575289413E-3</v>
       </c>
       <c r="D119">
-        <v>3.0920469208211161</v>
+        <v>2.082669119737024</v>
       </c>
       <c r="E119">
-        <v>-1.939273028282891E-2</v>
+        <v>-1.9480661825918132E-2</v>
       </c>
       <c r="F119">
-        <v>0.9346294988853302</v>
+        <v>0.95784772235285831</v>
       </c>
     </row>
     <row r="120" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A120">
-        <v>3</v>
+      <c r="A120" t="s">
+        <v>8</v>
       </c>
       <c r="B120" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C120">
-        <v>-4.9275829674300439E-3</v>
+        <v>-6.4817102281389677E-3</v>
       </c>
       <c r="D120">
-        <v>6.0963562499999977</v>
+        <v>5.0869784489159056</v>
       </c>
       <c r="E120">
-        <v>8.7432703813784138E-2</v>
+        <v>8.7354193286967072E-2</v>
       </c>
       <c r="F120">
-        <v>1.5179282525510185</v>
+        <v>1.5066323514185538</v>
       </c>
     </row>
     <row r="121" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A121">
-        <v>3</v>
+      <c r="A121" t="s">
+        <v>8</v>
       </c>
       <c r="B121" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C121">
-        <v>1.5652163929313227E-2</v>
+        <v>1.4137430549020434E-2</v>
       </c>
       <c r="D121">
-        <v>-2.6445454545454532</v>
+        <v>-3.6539232556295453</v>
       </c>
       <c r="E121">
-        <v>0.12274998721472731</v>
+        <v>0.1226620556716381</v>
       </c>
       <c r="F121">
-        <v>-2.6758103838126162</v>
+        <v>-2.6525921603450882</v>
       </c>
     </row>
     <row r="122" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A122">
-        <v>3</v>
+      <c r="A122" t="s">
+        <v>8</v>
       </c>
       <c r="B122" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="C122">
-        <v>3.8558614915814352E-3</v>
+        <v>2.3341641899702857E-3</v>
       </c>
       <c r="D122">
-        <v>-0.16364375000000173</v>
+        <v>-1.1730215510840938</v>
       </c>
       <c r="E122">
-        <v>-7.8145586411526274E-2</v>
+        <v>-7.8191613653744302E-2</v>
       </c>
       <c r="F122">
-        <v>0.17561575255102077</v>
+        <v>0.19646361837405343</v>
       </c>
     </row>
     <row r="123" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A123">
-        <v>3</v>
+      <c r="A123" t="s">
+        <v>8</v>
       </c>
       <c r="B123" t="s">
-        <v>27</v>
+        <v>8</v>
       </c>
       <c r="C123">
-        <v>-3.4135714858565556E-2</v>
+        <v>-3.5650448238858351E-2</v>
       </c>
       <c r="D123">
-        <v>9.831666666666667</v>
+        <v>8.8222888655825749</v>
       </c>
       <c r="E123">
-        <v>4.2386350851090777E-2</v>
+        <v>4.2298419308001559E-2</v>
       </c>
       <c r="F123">
-        <v>4.0687350707328376</v>
+        <v>4.0919532942003656</v>
       </c>
     </row>
     <row r="124" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A124">
-        <v>3</v>
+      <c r="A124" t="s">
+        <v>8</v>
       </c>
       <c r="B124" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C124">
-        <v>-9.7813910098980706E-4</v>
+        <v>-2.4928724812826012E-3</v>
       </c>
       <c r="D124">
-        <v>-4.029393939393942</v>
+        <v>-5.0387717404780341</v>
       </c>
       <c r="E124">
-        <v>-0.11342274005800007</v>
+        <v>-0.11351067160108928</v>
       </c>
       <c r="F124">
-        <v>-1.9958406868429204</v>
+        <v>-1.9726224633753924</v>
       </c>
     </row>
     <row r="125" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A125">
-        <v>3</v>
+      <c r="A125" t="s">
+        <v>8</v>
       </c>
       <c r="B125" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C125">
-        <v>-1.7557843117903118E-2</v>
+        <v>-1.9072576498195912E-2</v>
       </c>
       <c r="D125">
-        <v>2.6528900634249473</v>
+        <v>1.6435122623408551</v>
       </c>
       <c r="E125">
-        <v>-0.13521336726025501</v>
+        <v>-0.13530129880334421</v>
       </c>
       <c r="F125">
-        <v>1.6167688973713139</v>
+        <v>1.6399871208388421</v>
       </c>
     </row>
     <row r="126" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A126">
-        <v>3</v>
+      <c r="A126" t="s">
+        <v>8</v>
       </c>
       <c r="B126" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C126">
-        <v>1.9485497262646558E-2</v>
+        <v>1.7970763882353767E-2</v>
       </c>
       <c r="D126">
-        <v>1.1194772727272735</v>
+        <v>0.11009947164318135</v>
       </c>
       <c r="E126">
-        <v>1.6280290245030263E-2</v>
+        <v>1.6192358701941044E-2</v>
       </c>
       <c r="F126">
-        <v>-4.217402017625331E-2</v>
+        <v>-1.8955796708725228E-2</v>
       </c>
     </row>
     <row r="127" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A127">
-        <v>3</v>
+      <c r="A127" t="s">
+        <v>8</v>
       </c>
       <c r="B127" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C127">
-        <v>2.0591557868707162E-2</v>
+        <v>1.9076824488414367E-2</v>
       </c>
       <c r="D127">
-        <v>0.38345454545454222</v>
+        <v>-0.62592325562954987</v>
       </c>
       <c r="E127">
-        <v>9.3083320548060691E-2</v>
+        <v>9.2995389004971465E-2</v>
       </c>
       <c r="F127">
-        <v>-0.93944674744898182</v>
+        <v>-0.91622852398145405</v>
       </c>
     </row>
     <row r="128" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A128">
-        <v>3</v>
+      <c r="A128" t="s">
+        <v>8</v>
       </c>
       <c r="B128" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C128">
-        <v>6.3718608990101892E-3</v>
+        <v>4.8571275187173947E-3</v>
       </c>
       <c r="D128">
-        <v>-1.874431818181818</v>
+        <v>-2.8838096192659104</v>
       </c>
       <c r="E128">
-        <v>-1.7106073391333378E-2</v>
+        <v>-1.7194004934422601E-2</v>
       </c>
       <c r="F128">
-        <v>-1.7360376565398878</v>
+        <v>-1.7128194330723596</v>
       </c>
     </row>
     <row r="129" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A129">
-        <v>3</v>
+      <c r="A129" t="s">
+        <v>8</v>
       </c>
       <c r="B129" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C129">
-        <v>-1.1865007787858485E-2</v>
+        <v>-1.337974116815128E-2</v>
       </c>
       <c r="D129">
-        <v>-9.4511111111112267E-2</v>
+        <v>-1.1038889121952045</v>
       </c>
       <c r="E129">
-        <v>-1.6439521792121039E-3</v>
+        <v>-1.7318837223013245E-3</v>
       </c>
       <c r="F129">
-        <v>-0.26154775754999043</v>
+        <v>-0.23832953408246238</v>
       </c>
     </row>
     <row r="130" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A130">
-        <v>3</v>
+      <c r="A130" t="s">
+        <v>8</v>
       </c>
       <c r="B130" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C130">
-        <v>4.3292472626465578E-3</v>
+        <v>2.8145138823537641E-3</v>
       </c>
       <c r="D130">
-        <v>-2.6821903409090919</v>
+        <v>-3.6915681419931841</v>
       </c>
       <c r="E130">
-        <v>4.5271767517757494E-2</v>
+        <v>4.5183835974668268E-2</v>
       </c>
       <c r="F130">
-        <v>-2.1308387929035248</v>
+        <v>-2.1076205694359968</v>
       </c>
     </row>
     <row r="131" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A131">
-        <v>3</v>
+      <c r="A131" t="s">
+        <v>8</v>
       </c>
       <c r="B131" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C131">
-        <v>1.2440199899192844E-3</v>
+        <v>-2.7071339037350946E-4</v>
       </c>
       <c r="D131">
-        <v>2.5613380681818159</v>
+        <v>1.5519602670977237</v>
       </c>
       <c r="E131">
-        <v>-2.1546414300424113E-2</v>
+        <v>-2.1634345843513335E-2</v>
       </c>
       <c r="F131">
-        <v>0.68353620709647456</v>
+        <v>0.70675443056400267</v>
       </c>
     </row>
     <row r="132" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A132">
-        <v>3</v>
+      <c r="A132" t="s">
+        <v>8</v>
       </c>
       <c r="B132" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C132">
-        <v>1.372844213674273E-2</v>
+        <v>1.220674483513158E-2</v>
       </c>
       <c r="D132">
-        <v>4.2200774193548414</v>
+        <v>3.2106996182707492</v>
       </c>
       <c r="E132">
-        <v>1.8402195846538304E-2</v>
+        <v>1.8356168604320277E-2</v>
       </c>
       <c r="F132">
-        <v>1.3861661557768259</v>
+        <v>1.4070140215998586</v>
       </c>
     </row>
     <row r="133" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A133">
-        <v>3</v>
+      <c r="A133" t="s">
+        <v>8</v>
       </c>
       <c r="B133" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C133">
-        <v>4.8036790808283804E-3</v>
+        <v>3.2889457005355863E-3</v>
       </c>
       <c r="D133">
-        <v>-0.36369696969696652</v>
+        <v>-1.3730747707810587</v>
       </c>
       <c r="E133">
-        <v>4.8719684184424225E-2</v>
+        <v>4.8631752641335006E-2</v>
       </c>
       <c r="F133">
-        <v>-0.82793159593382815</v>
+        <v>-0.80471337246630015</v>
       </c>
     </row>
     <row r="134" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A134">
-        <v>3</v>
+      <c r="A134" t="s">
+        <v>8</v>
       </c>
       <c r="B134" t="s">
-        <v>38</v>
+        <v>9</v>
       </c>
       <c r="C134">
-        <v>5.6125483840413807E-4</v>
+        <v>-9.5347854188865581E-4</v>
       </c>
       <c r="D134">
-        <v>-3.6292121212121238</v>
+        <v>-4.6385899222962159</v>
       </c>
       <c r="E134">
-        <v>0.11999241145715164</v>
+        <v>0.11990447991406242</v>
       </c>
       <c r="F134">
-        <v>-3.2715679595701919</v>
+        <v>-3.2483497361026639</v>
       </c>
     </row>
     <row r="135" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A135">
-        <v>3</v>
+      <c r="A135" t="s">
+        <v>8</v>
       </c>
       <c r="B135" t="s">
         <v>39</v>
       </c>
       <c r="C135">
-        <v>1.4167315444464736E-2</v>
+        <v>1.2652582064171941E-2</v>
       </c>
       <c r="D135">
-        <v>-2.1240606060606066</v>
+        <v>-3.1334384071446988</v>
       </c>
       <c r="E135">
-        <v>-3.3977285512545349E-2</v>
+        <v>-3.4065217055634568E-2</v>
       </c>
       <c r="F135">
-        <v>-1.3609618989641308</v>
+        <v>-1.3377436754966026</v>
       </c>
     </row>
     <row r="136" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A136">
-        <v>3</v>
+      <c r="A136" t="s">
+        <v>8</v>
       </c>
       <c r="B136" t="s">
         <v>40</v>
       </c>
       <c r="C136">
-        <v>-8.7533808804869002E-3</v>
+        <v>-1.0268114260779695E-2</v>
       </c>
       <c r="D136">
-        <v>-2.4857988394584152</v>
+        <v>-3.4951766405425073</v>
       </c>
       <c r="E136">
-        <v>-4.4945048246265683E-2</v>
+        <v>-4.5032979789354902E-2</v>
       </c>
       <c r="F136">
-        <v>-1.6763713122458854</v>
+        <v>-1.6531530887783574</v>
       </c>
     </row>
     <row r="137" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A137">
-        <v>3</v>
+      <c r="A137" t="s">
+        <v>8</v>
       </c>
       <c r="B137" t="s">
         <v>41</v>
       </c>
       <c r="C137">
-        <v>1.5915578687071723E-3</v>
+        <v>7.682448841437834E-5</v>
       </c>
       <c r="D137">
-        <v>-3.8111818181818169</v>
+        <v>-4.820559619265909</v>
       </c>
       <c r="E137">
-        <v>0.20126513872987883</v>
+        <v>0.20117720718678961</v>
       </c>
       <c r="F137">
-        <v>-4.2061134141156478</v>
+        <v>-4.1828951906481189</v>
       </c>
     </row>
     <row r="138" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A138">
-        <v>3</v>
+      <c r="A138" t="s">
+        <v>8</v>
       </c>
       <c r="B138" t="s">
         <v>42</v>
       </c>
       <c r="C138">
-        <v>-1.7162093460726391E-5</v>
+        <v>-1.5834041423473928E-3</v>
       </c>
       <c r="D138">
-        <v>0.50873118279569551</v>
+        <v>-0.50064661828839663</v>
       </c>
       <c r="E138">
-        <v>6.4297678928833923E-2</v>
+        <v>6.4266775515903971E-2</v>
       </c>
       <c r="F138">
-        <v>-0.73776215963536174</v>
+        <v>-0.75552669421726515</v>
       </c>
     </row>
     <row r="139" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A139">
-        <v>3</v>
+      <c r="A139" t="s">
+        <v>8</v>
       </c>
       <c r="B139" t="s">
         <v>43</v>
       </c>
       <c r="C139">
-        <v>8.5792472626465624E-3</v>
+        <v>7.0645138823537679E-3</v>
       </c>
       <c r="D139">
-        <v>-3.5119062500000022</v>
+        <v>-4.5212840510840948</v>
       </c>
       <c r="E139">
-        <v>-2.4924255209515082E-2</v>
+        <v>-2.5012186752604304E-2</v>
       </c>
       <c r="F139">
-        <v>-2.1710376565398906</v>
+        <v>-2.1478194330723626</v>
       </c>
     </row>
     <row r="140" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A140">
-        <v>3</v>
+      <c r="A140" t="s">
+        <v>8</v>
       </c>
       <c r="B140" t="s">
         <v>44</v>
       </c>
       <c r="C140">
-        <v>-4.9778594386511122E-3</v>
+        <v>-6.4995567402622622E-3</v>
       </c>
       <c r="D140">
-        <v>-1.1933697674418628</v>
+        <v>-2.2027475685259548</v>
       </c>
       <c r="E140">
-        <v>-0.17850125501617747</v>
+        <v>-0.1785472822583955</v>
       </c>
       <c r="F140">
-        <v>0.96146022929520714</v>
+        <v>0.9823080951182398</v>
       </c>
     </row>
     <row r="141" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A141">
-        <v>3</v>
+      <c r="A141" t="s">
+        <v>8</v>
       </c>
       <c r="B141" t="s">
         <v>45</v>
       </c>
       <c r="C141">
-        <v>-4.0081602426388554E-3</v>
+        <v>-5.522893622931649E-3</v>
       </c>
       <c r="D141">
-        <v>-1.3239471458773793</v>
+        <v>-2.3333249469614716</v>
       </c>
       <c r="E141">
-        <v>-0.15137404379302455</v>
+        <v>-0.15146197533611377</v>
       </c>
       <c r="F141">
-        <v>0.51484500730789118</v>
+        <v>0.53806323077541929</v>
       </c>
     </row>
     <row r="142" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A142">
-        <v>3</v>
+      <c r="A142" t="s">
+        <v>8</v>
       </c>
       <c r="B142" t="s">
         <v>46</v>
       </c>
       <c r="C142">
-        <v>6.3013135784498126E-3</v>
+        <v>4.8160619791549949E-3</v>
       </c>
       <c r="D142">
-        <v>7.8496088794926031</v>
+        <v>6.840231078408511</v>
       </c>
       <c r="E142">
-        <v>-9.327502645028353E-2</v>
+        <v>-9.3333427734646354E-2</v>
       </c>
       <c r="F142">
-        <v>5.0744855992740643</v>
+        <v>5.1269254290647721</v>
       </c>
     </row>
     <row r="143" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A143">
-        <v>3</v>
+      <c r="A143" t="s">
+        <v>8</v>
       </c>
       <c r="B143" t="s">
         <v>47</v>
       </c>
       <c r="C143">
-        <v>3.4445111769858092E-3</v>
+        <v>1.9263783195824496E-3</v>
       </c>
       <c r="D143">
-        <v>1.2273106060606045</v>
+        <v>0.21793280497651235</v>
       </c>
       <c r="E143">
-        <v>-0.10468296628969069</v>
+        <v>-0.10470302004305128</v>
       </c>
       <c r="F143">
-        <v>1.700780525278291</v>
+        <v>1.7272385952966585</v>
       </c>
     </row>
     <row r="144" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A144">
-        <v>3</v>
+      <c r="A144" t="s">
+        <v>8</v>
       </c>
       <c r="B144" t="s">
         <v>48</v>
       </c>
       <c r="C144">
-        <v>5.5536790808283828E-3</v>
+        <v>4.0389457005355891E-3</v>
       </c>
       <c r="D144">
-        <v>-0.34599999999999975</v>
+        <v>-1.355377801084092</v>
       </c>
       <c r="E144">
-        <v>1.768938115412122E-2</v>
+        <v>1.7601449611031997E-2</v>
       </c>
       <c r="F144">
-        <v>-0.94899220199443624</v>
+        <v>-0.92577397852690813</v>
       </c>
     </row>
     <row r="145" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A145">
-        <v>3</v>
+      <c r="A145" t="s">
+        <v>8</v>
       </c>
       <c r="B145" t="s">
         <v>49</v>
       </c>
       <c r="C145">
-        <v>6.0195881717374691E-3</v>
+        <v>4.5048547914446754E-3</v>
       </c>
       <c r="D145">
-        <v>8.9567613636363657</v>
+        <v>7.9473835625522726</v>
       </c>
       <c r="E145">
-        <v>9.0516085699575644E-2</v>
+        <v>9.0428154156486418E-2</v>
       </c>
       <c r="F145">
-        <v>3.014672570732837</v>
+        <v>3.037890794200365</v>
       </c>
     </row>
     <row r="146" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A146">
-        <v>3</v>
+      <c r="A146" t="s">
+        <v>8</v>
       </c>
       <c r="B146" t="s">
         <v>50</v>
       </c>
       <c r="C146">
-        <v>8.873854519424863E-3</v>
+        <v>7.3591211391320684E-3</v>
       </c>
       <c r="D146">
-        <v>-3.1988883572567768</v>
+        <v>-4.2082661583408685</v>
       </c>
       <c r="E146">
-        <v>-1.0385578973470387E-2</v>
+        <v>-1.0473510516559608E-2</v>
       </c>
       <c r="F146">
-        <v>-2.0231947538285655</v>
+        <v>-1.9999765303610375</v>
       </c>
     </row>
     <row r="147" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A147">
-        <v>3</v>
+      <c r="A147" t="s">
+        <v>8</v>
       </c>
       <c r="B147" t="s">
         <v>51</v>
       </c>
       <c r="C147">
-        <v>-8.9841997070504113E-3</v>
+        <v>-1.0498933087343206E-2</v>
       </c>
       <c r="D147">
-        <v>2.1207575757575756</v>
+        <v>1.1113797746734833</v>
       </c>
       <c r="E147">
-        <v>-3.5401527936788017E-2</v>
+        <v>-3.5489459479877243E-2</v>
       </c>
       <c r="F147">
-        <v>0.71146234346011061</v>
+        <v>0.73468056692763861</v>
       </c>
     </row>
     <row r="148" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A148">
-        <v>3</v>
+      <c r="A148" t="s">
+        <v>8</v>
       </c>
       <c r="B148" t="s">
         <v>52</v>
       </c>
       <c r="C148">
-        <v>-2.2256926979777675E-2</v>
+        <v>-2.377166036007047E-2</v>
       </c>
       <c r="D148">
-        <v>5.8358787878787846</v>
+        <v>4.8265009867946924</v>
       </c>
       <c r="E148">
-        <v>0.14720453266927269</v>
+        <v>0.14711660112618349</v>
       </c>
       <c r="F148">
-        <v>1.3647956767934444</v>
+        <v>1.3880139002609724</v>
       </c>
     </row>
     <row r="149" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A149">
-        <v>3</v>
+      <c r="A149" t="s">
+        <v>8</v>
       </c>
       <c r="B149" t="s">
         <v>53</v>
       </c>
       <c r="C149">
-        <v>7.4097396868889878E-3</v>
+        <v>5.8950063065961933E-3</v>
       </c>
       <c r="D149">
-        <v>1.7541515151515148</v>
+        <v>0.74477371406742254</v>
       </c>
       <c r="E149">
-        <v>0.12256816903290925</v>
+        <v>0.12248023748982004</v>
       </c>
       <c r="F149">
-        <v>-0.36096189896413283</v>
+        <v>-0.33774367549660478</v>
       </c>
     </row>
     <row r="150" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A150">
-        <v>3</v>
+      <c r="A150" t="s">
+        <v>8</v>
       </c>
       <c r="B150" t="s">
         <v>54</v>
       </c>
       <c r="C150">
-        <v>1.2927770003396661E-2</v>
+        <v>1.1445864856783975E-2</v>
       </c>
       <c r="D150">
-        <v>-3.70468137254902</v>
+        <v>-4.7140591736331121</v>
       </c>
       <c r="E150">
-        <v>-1.3953032336774288E-2</v>
+        <v>-1.4048814726756972E-2</v>
       </c>
       <c r="F150">
-        <v>-2.1903291003901564</v>
+        <v>-2.1383491064226341</v>
       </c>
     </row>
     <row r="151" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A151">
-        <v>4</v>
+      <c r="A151" t="s">
+        <v>9</v>
       </c>
       <c r="B151" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C151">
-        <v>-2.7428879058706498E-2</v>
+        <v>-2.1833911606993637E-2</v>
       </c>
       <c r="D151">
-        <v>4.0262494714587742</v>
+        <v>4.730497250123312</v>
       </c>
       <c r="E151">
-        <v>-4.939069535851328E-2</v>
+        <v>-4.8882624391101984E-2</v>
       </c>
       <c r="F151">
-        <v>3.1474226489353647</v>
+        <v>3.1384733585572078</v>
       </c>
     </row>
     <row r="152" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A152">
-        <v>4</v>
+      <c r="A152" t="s">
+        <v>9</v>
       </c>
       <c r="B152" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C152">
-        <v>-3.4235936464443464E-3</v>
+        <v>2.1713738052685154E-3</v>
       </c>
       <c r="D152">
-        <v>-9.1734318181818164</v>
+        <v>-8.4691840395172786</v>
       </c>
       <c r="E152">
-        <v>-7.0017545252805083E-2</v>
+        <v>-6.9509474285393794E-2</v>
       </c>
       <c r="F152">
-        <v>-3.6089198457792246</v>
+        <v>-3.6178691361573816</v>
       </c>
     </row>
     <row r="153" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A153">
-        <v>4</v>
+      <c r="A153" t="s">
+        <v>9</v>
       </c>
       <c r="B153" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C153">
-        <v>-1.8082684555535262E-2</v>
+        <v>-1.2487717103822403E-2</v>
       </c>
       <c r="D153">
-        <v>2.7842954545454526</v>
+        <v>3.4885432332099904</v>
       </c>
       <c r="E153">
-        <v>7.3414272929013119E-2</v>
+        <v>7.3922343896424408E-2</v>
       </c>
       <c r="F153">
-        <v>1.0172165178571413</v>
+        <v>1.0082672274789839</v>
       </c>
     </row>
     <row r="154" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A154">
-        <v>4</v>
+      <c r="A154" t="s">
+        <v>9</v>
       </c>
       <c r="B154" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C154">
-        <v>-4.0468259696766658E-3</v>
+        <v>1.548141482036196E-3</v>
       </c>
       <c r="D154">
-        <v>-3.9149656565656561</v>
+        <v>-3.2107178779011183</v>
       </c>
       <c r="E154">
-        <v>-4.9305424040683811E-2</v>
+        <v>-4.8797353073272515E-2</v>
       </c>
       <c r="F154">
-        <v>-1.8319299467893242</v>
+        <v>-1.8408792371674816</v>
       </c>
     </row>
     <row r="155" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A155">
-        <v>4</v>
+      <c r="A155" t="s">
+        <v>9</v>
       </c>
       <c r="B155" t="s">
         <v>40</v>
       </c>
       <c r="C155">
-        <v>1.9953724567050718E-3</v>
+        <v>7.5780293207878928E-3</v>
       </c>
       <c r="D155">
-        <v>4.3333829787234031</v>
+        <v>5.0376307573879409</v>
       </c>
       <c r="E155">
-        <v>-0.10983854285613814</v>
+        <v>-0.1093275278211418</v>
       </c>
       <c r="F155">
-        <v>4.9246101348784164</v>
+        <v>4.9048751805627617</v>
       </c>
     </row>
     <row r="156" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A156">
-        <v>4</v>
+      <c r="A156" t="s">
+        <v>9</v>
       </c>
       <c r="B156" t="s">
         <v>44</v>
       </c>
       <c r="C156">
-        <v>6.3745036051412801E-3</v>
+        <v>1.1969471056854142E-2</v>
       </c>
       <c r="D156">
-        <v>-6.0937061310782257</v>
+        <v>-5.3894583524136879</v>
       </c>
       <c r="E156">
-        <v>0.1465353088698165</v>
+        <v>0.14704337983722782</v>
       </c>
       <c r="F156">
-        <v>-4.2119219599441271</v>
+        <v>-4.2208712503222845</v>
       </c>
     </row>
     <row r="157" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A157">
-        <v>4</v>
+      <c r="A157" t="s">
+        <v>9</v>
       </c>
       <c r="B157" t="s">
         <v>45</v>
       </c>
       <c r="C157">
-        <v>3.6282033937247798E-3</v>
+        <v>9.2231708454376411E-3</v>
       </c>
       <c r="D157">
-        <v>-4.0640380549682886</v>
+        <v>-3.3597902763037513</v>
       </c>
       <c r="E157">
-        <v>9.214630252732188E-2</v>
+        <v>9.2654373494733169E-2</v>
       </c>
       <c r="F157">
-        <v>-2.890991727385988</v>
+        <v>-2.8999410177641454</v>
       </c>
     </row>
     <row r="158" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A158">
-        <v>4</v>
+      <c r="A158" t="s">
+        <v>9</v>
       </c>
       <c r="B158" t="s">
         <v>46</v>
       </c>
       <c r="C158">
-        <v>-1.3291917258847151E-2</v>
+        <v>-7.660440475503837E-3</v>
       </c>
       <c r="D158">
-        <v>-9.0179093023255792</v>
+        <v>-8.3136615236610414</v>
       </c>
       <c r="E158">
-        <v>0.17568047405488182</v>
+        <v>0.17613957495921781</v>
       </c>
       <c r="F158">
-        <v>-6.0562602263289067</v>
+        <v>-6.0369535656125732</v>
       </c>
     </row>
     <row r="159" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A159">
-        <v>4</v>
+      <c r="A159" t="s">
+        <v>9</v>
       </c>
       <c r="B159" t="s">
         <v>48</v>
       </c>
       <c r="C159">
-        <v>-8.9917754646261627E-3</v>
+        <v>-3.3968080129133005E-3</v>
       </c>
       <c r="D159">
-        <v>-1.3280000000000014</v>
+        <v>-0.62375222133546349</v>
       </c>
       <c r="E159">
-        <v>-8.9972090707350502E-2</v>
+        <v>-8.9464019739939213E-2</v>
       </c>
       <c r="F159">
-        <v>0.85698924512986563</v>
+        <v>0.84803995475170835</v>
       </c>
     </row>
     <row r="160" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A160">
-        <v>4</v>
+      <c r="A160" t="s">
+        <v>9</v>
       </c>
       <c r="B160" t="s">
         <v>50</v>
       </c>
       <c r="C160">
-        <v>3.0120118644865614E-2</v>
+        <v>3.5751595428208931E-2</v>
       </c>
       <c r="D160">
-        <v>3.8173298245614053</v>
+        <v>4.5215776032259427</v>
       </c>
       <c r="E160">
-        <v>-9.9155796854950948E-2</v>
+        <v>-9.8696695950614963E-2</v>
       </c>
       <c r="F160">
-        <v>3.4117866932957366</v>
+        <v>3.4310933540120696</v>
       </c>
     </row>
   </sheetData>
@@ -3722,11 +3763,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F606BB34-075A-4DDA-96C7-C8A38D817D02}">
   <dimension ref="A1:E51"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:A1048576"/>
+      <selection activeCell="I27" sqref="I27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3753,55 +3794,55 @@
         <v>6</v>
       </c>
       <c r="B2">
-        <v>-9.2518260877639119E-2</v>
+        <v>4.9797472011508647E-3</v>
       </c>
       <c r="C2">
-        <v>2.2832445707395084</v>
+        <v>-1.076074565185094E-2</v>
       </c>
       <c r="D2">
-        <v>-0.74637856563079918</v>
+        <v>2.7758206417194902E-4</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="B3">
-        <v>-1.7674395895489667</v>
+        <v>5.7581323170270227E-3</v>
       </c>
       <c r="C3">
-        <v>1.1938127525576911</v>
+        <v>-1.5870594136699428E-2</v>
       </c>
       <c r="D3">
-        <v>0.58418961618738396</v>
+        <v>9.0768244884143687E-3</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>27</v>
+        <v>8</v>
       </c>
       <c r="B4">
-        <v>-1.0865304986398772</v>
+        <v>7.3944959533906677E-3</v>
       </c>
       <c r="C4">
-        <v>-2.9716417928968548</v>
+        <v>2.7220314954209672E-2</v>
       </c>
       <c r="D4">
-        <v>4.0687350707328376</v>
+        <v>-3.5650448238858351E-2</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>38</v>
+        <v>9</v>
       </c>
       <c r="B5">
-        <v>2.8722573801480036</v>
+        <v>-1.9848648514994863E-2</v>
       </c>
       <c r="C5">
-        <v>0.40987335861829782</v>
+        <v>1.8553648287543006E-2</v>
       </c>
       <c r="D5">
-        <v>-3.2715679595701919</v>
+        <v>-9.5347854188865581E-4</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
@@ -3809,13 +3850,13 @@
         <v>49</v>
       </c>
       <c r="B6">
-        <v>-0.97313845318533188</v>
+        <v>2.3689360771285278E-3</v>
       </c>
       <c r="C6">
-        <v>-2.2066133838059461</v>
+        <v>-7.8971092882145748E-3</v>
       </c>
       <c r="D6">
-        <v>3.014672570732837</v>
+        <v>4.5048547914446754E-3</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
@@ -3823,13 +3864,13 @@
         <v>51</v>
       </c>
       <c r="B7">
-        <v>1.5807422286328507</v>
+        <v>-7.0903525314578225E-3</v>
       </c>
       <c r="C7">
-        <v>-2.2816417928968549</v>
+        <v>1.6553648287542997E-2</v>
       </c>
       <c r="D7">
-        <v>0.71146234346011061</v>
+        <v>-1.0498933087343206E-2</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
@@ -3837,13 +3878,13 @@
         <v>52</v>
       </c>
       <c r="B8">
-        <v>-1.3913789834883608</v>
+        <v>2.9727829286724003E-2</v>
       </c>
       <c r="C8">
-        <v>3.7146085891024777E-2</v>
+        <v>-6.9918062579115408E-3</v>
       </c>
       <c r="D8">
-        <v>1.3647956767934444</v>
+        <v>-2.377166036007047E-2</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
@@ -3851,13 +3892,13 @@
         <v>53</v>
       </c>
       <c r="B9">
-        <v>0.70831798620860775</v>
+        <v>6.7581323170270288E-3</v>
       </c>
       <c r="C9">
-        <v>-0.33679330804837027</v>
+        <v>-1.368877595488124E-2</v>
       </c>
       <c r="D9">
-        <v>-0.36096189896413283</v>
+        <v>5.8950063065961933E-3</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
@@ -3865,111 +3906,111 @@
         <v>54</v>
       </c>
       <c r="B10">
-        <v>4.1530416938734929</v>
+        <v>-1.3083222406680643E-2</v>
       </c>
       <c r="C10">
-        <v>-1.8038877822016666</v>
+        <v>-1.2574034058616421E-3</v>
       </c>
       <c r="D10">
-        <v>-2.1903291003901564</v>
+        <v>1.1445864856783975E-2</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="B11">
-        <v>-0.65846231682169398</v>
+        <v>-5.2482697271160721E-3</v>
       </c>
       <c r="C11">
-        <v>-1.4436645201695812</v>
+        <v>-5.3962089805980459E-3</v>
       </c>
       <c r="D11">
-        <v>2.0168032525510204</v>
+        <v>7.5559911550810424E-3</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="B12">
-        <v>-0.52735713232365222</v>
+        <v>-1.6731776956280327E-3</v>
       </c>
       <c r="C12">
-        <v>0.72470329059108607</v>
+        <v>-9.2206250581589235E-3</v>
       </c>
       <c r="D12">
-        <v>1.9750801542207792</v>
+        <v>1.4817702657863968E-2</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B13">
-        <v>-0.32786572591260499</v>
+        <v>2.5521389892784605E-2</v>
       </c>
       <c r="C13">
-        <v>1.2006593434667803</v>
+        <v>-7.5618820154873014E-3</v>
       </c>
       <c r="D13">
-        <v>-0.89250924744898263</v>
+        <v>-2.0740780842393211E-2</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="B14">
-        <v>2.5551654261250154</v>
+        <v>3.4783610139658645E-2</v>
       </c>
       <c r="C14">
-        <v>-1.1025822317683263</v>
+        <v>-1.1138096749029618E-2</v>
       </c>
       <c r="D14">
-        <v>-1.5734553681386345</v>
+        <v>-2.9826437806262776E-2</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B15">
-        <v>-2.9056214077307865</v>
+        <v>2.045510201399672E-2</v>
       </c>
       <c r="C15">
-        <v>0.28472184346678003</v>
+        <v>-9.0827153488206389E-3</v>
       </c>
       <c r="D15">
-        <v>2.6314623434601092</v>
+        <v>-1.2408023996434115E-2</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="B16">
-        <v>0.19104525893588056</v>
+        <v>5.9096474685421743E-3</v>
       </c>
       <c r="C16">
-        <v>-0.7886114898665525</v>
+        <v>-4.6281698942751848E-3</v>
       </c>
       <c r="D16">
-        <v>0.60812901012677711</v>
+        <v>-2.3171149055250238E-3</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="B17">
-        <v>2.3054240468146698</v>
+        <v>8.6121193745287185E-3</v>
       </c>
       <c r="C17">
-        <v>-1.5226417928968539</v>
+        <v>-1.0194836560941847E-2</v>
       </c>
       <c r="D17">
-        <v>-0.40499220199443459</v>
+        <v>1.7525820641719468E-3</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
@@ -3977,330 +4018,330 @@
         <v>55</v>
       </c>
       <c r="C18">
-        <v>-1.7257327019877653</v>
+        <v>-1.5970161236266517E-2</v>
       </c>
       <c r="D18">
-        <v>0.77737143436919998</v>
+        <v>1.4761146914718182E-2</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="B19">
-        <v>-3.2335911047004813</v>
+        <v>-3.1145949557002421E-3</v>
       </c>
       <c r="C19">
-        <v>1.483115782860722</v>
+        <v>-3.3796850457903272E-3</v>
       </c>
       <c r="D19">
-        <v>2.6312199192176875</v>
+        <v>7.348235788340313E-3</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="B20">
-        <v>0.30256041045103127</v>
+        <v>9.2732838321785364E-3</v>
       </c>
       <c r="C20">
-        <v>2.2903661648598309E-2</v>
+        <v>8.2809210148157234E-3</v>
       </c>
       <c r="D20">
-        <v>-0.31490129290352797</v>
+        <v>-1.8589842178252301E-2</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B21">
-        <v>1.0759695013601231</v>
+        <v>7.5727905270340772E-3</v>
       </c>
       <c r="C21">
-        <v>-0.13641452016958208</v>
+        <v>-4.1707669490394818E-3</v>
       </c>
       <c r="D21">
-        <v>-1.1814922019944354</v>
+        <v>-2.9266991197603957E-3</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B22">
-        <v>2.4456087314993544</v>
+        <v>-1.1072784237084916E-2</v>
       </c>
       <c r="C22">
-        <v>-0.95301771427277582</v>
+        <v>-1.1990134651187504E-3</v>
       </c>
       <c r="D22">
-        <v>-2.0226408506430831</v>
+        <v>1.5930223341813231E-2</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B23">
-        <v>-0.9847123168216928</v>
+        <v>6.1823747412694469E-3</v>
       </c>
       <c r="C23">
-        <v>1.4729036616486015</v>
+        <v>-4.2645335306388237E-3</v>
       </c>
       <c r="D23">
-        <v>-0.47762856563079725</v>
+        <v>-2.9534785418886614E-3</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B24">
-        <v>-2.1760061857434696</v>
+        <v>-1.0776177030042841E-2</v>
       </c>
       <c r="C24">
-        <v>0.40742797454500668</v>
+        <v>9.472605299523271E-3</v>
       </c>
       <c r="D24">
-        <v>-2.1285587981889371</v>
+        <v>2.6056387561000705E-2</v>
       </c>
       <c r="E24">
-        <v>3.1474226489353647</v>
+        <v>-2.1833911606993637E-2</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B25">
-        <v>-1.5152426198519982</v>
+        <v>5.8984805455284091E-3</v>
       </c>
       <c r="C25">
-        <v>0.52508547983041753</v>
+        <v>-2.3412500653739688E-3</v>
       </c>
       <c r="D25">
-        <v>1.3087350707328367</v>
+        <v>-3.7413573297674437E-3</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B26">
-        <v>-1.9089547410641174</v>
+        <v>-5.1459495570025076E-4</v>
       </c>
       <c r="C26">
-        <v>-2.0386114898665504</v>
+        <v>9.9475876814823887E-3</v>
       </c>
       <c r="D26">
-        <v>3.9581290101267785</v>
+        <v>-1.0468630057040178E-2</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B27">
-        <v>-4.1268178886692022</v>
+        <v>1.2561474433318263E-2</v>
       </c>
       <c r="C27">
-        <v>3.0533435443465469</v>
+        <v>-9.1036156567718286E-3</v>
       </c>
       <c r="D27">
-        <v>0.9346294988853302</v>
+        <v>-2.8400865575289413E-3</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B28">
-        <v>-2.7012464077307863</v>
+        <v>-3.6661101072154065E-3</v>
       </c>
       <c r="C28">
-        <v>1.3827332071031444</v>
+        <v>9.3415270754217822E-3</v>
       </c>
       <c r="D28">
-        <v>1.5179282525510185</v>
+        <v>-6.4817102281389677E-3</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B29">
-        <v>2.1234695013601241</v>
+        <v>-2.954489798600328E-2</v>
       </c>
       <c r="C29">
-        <v>0.56290366164860073</v>
+        <v>1.4371830105724816E-2</v>
       </c>
       <c r="D29">
-        <v>-2.6758103838126162</v>
+        <v>1.4137430549020434E-2</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B30">
-        <v>-2.4060134531853294</v>
+        <v>-1.6593618890507967E-2</v>
       </c>
       <c r="C30">
-        <v>1.8026479798304196</v>
+        <v>9.104952470529358E-3</v>
       </c>
       <c r="D30">
-        <v>0.17561575255102077</v>
+        <v>2.3341641899702857E-3</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B31">
-        <v>0.89125738014800082</v>
+        <v>9.6563811094920304E-3</v>
       </c>
       <c r="C31">
-        <v>1.4418632576081949</v>
+        <v>-1.0050603085026196E-2</v>
       </c>
       <c r="D31">
-        <v>-1.9958406868429204</v>
+        <v>-2.4928724812826012E-3</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B32">
-        <v>-2.0828256763304047</v>
+        <v>7.8753869679140057E-3</v>
       </c>
       <c r="C32">
-        <v>3.2418465791961677</v>
+        <v>2.7072776039630208E-3</v>
       </c>
       <c r="D32">
-        <v>1.6167688973713139</v>
+        <v>-1.9072576498195912E-2</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B33">
-        <v>3.2671058649964864</v>
+        <v>-1.9347928289033575E-2</v>
       </c>
       <c r="C33">
-        <v>-8.0732701987764735E-2</v>
+        <v>3.8415270754217938E-3</v>
       </c>
       <c r="D33">
-        <v>-4.217402017625331E-2</v>
+        <v>1.7970763882353767E-2</v>
       </c>
       <c r="E33">
-        <v>-3.6089198457792246</v>
+        <v>2.1713738052685154E-3</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B34">
-        <v>-3.1428941350035142</v>
+        <v>-2.369641313751843E-2</v>
       </c>
       <c r="C34">
-        <v>4.0929036616485988</v>
+        <v>3.5839513178460287E-3</v>
       </c>
       <c r="D34">
-        <v>-0.93944674744898182</v>
+        <v>1.9076824488414367E-2</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B35">
-        <v>-1.5467577713671483</v>
+        <v>7.2657080746027789E-3</v>
       </c>
       <c r="C35">
-        <v>1.8008582071031476</v>
+        <v>5.0006179845126899E-3</v>
       </c>
       <c r="D35">
-        <v>-1.7360376565398878</v>
+        <v>4.8571275187173947E-3</v>
       </c>
       <c r="E35">
-        <v>1.0172165178571413</v>
+        <v>-1.2487717103822403E-2</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B36">
-        <v>1.0122018245924462</v>
+        <v>5.8755981161750142E-3</v>
       </c>
       <c r="C36">
-        <v>0.6117117424566807</v>
+        <v>9.5819311158258317E-3</v>
       </c>
       <c r="D36">
-        <v>-0.26154775754999043</v>
+        <v>-1.337974116815128E-2</v>
       </c>
       <c r="E36">
-        <v>-1.8319299467893242</v>
+        <v>1.548141482036196E-3</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B37">
-        <v>1.9009865468146701</v>
+        <v>-4.9123139228714691E-3</v>
       </c>
       <c r="C37">
-        <v>0.32605707073950962</v>
+        <v>4.1254980269451319E-4</v>
       </c>
       <c r="D37">
-        <v>-2.1308387929035248</v>
+        <v>2.8145138823537641E-3</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B38">
-        <v>-0.55463845318533023</v>
+        <v>-2.2248139228714702E-3</v>
       </c>
       <c r="C38">
-        <v>-0.2559315656241265</v>
+        <v>1.0545952572399665E-3</v>
       </c>
       <c r="D38">
-        <v>0.68353620709647456</v>
+        <v>-2.7071339037350946E-4</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B39">
-        <v>-2.8454630499595241</v>
+        <v>1.0513087336544071E-2</v>
       </c>
       <c r="C39">
-        <v>1.3008802012380427</v>
+        <v>-2.2821460990226691E-2</v>
       </c>
       <c r="D39">
-        <v>1.3861661557768259</v>
+        <v>1.220674483513158E-2</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B40">
-        <v>1.3595301074207298</v>
+        <v>-2.0297464708517597E-3</v>
       </c>
       <c r="C40">
-        <v>-0.52103573229079392</v>
+        <v>-2.2948365609418487E-3</v>
       </c>
       <c r="D40">
-        <v>-0.82793159593382815</v>
+        <v>3.2889457005355863E-3</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.25">
@@ -4308,13 +4349,13 @@
         <v>39</v>
       </c>
       <c r="B41">
-        <v>0.66468162257224606</v>
+        <v>-8.2115646526699487E-3</v>
       </c>
       <c r="C41">
-        <v>0.70684305558799498</v>
+        <v>-5.4766547427600358E-3</v>
       </c>
       <c r="D41">
-        <v>-1.3609618989641308</v>
+        <v>1.2652582064171941E-2</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.25">
@@ -4322,16 +4363,16 @@
         <v>40</v>
       </c>
       <c r="B42">
-        <v>-0.79794704204640698</v>
+        <v>8.6030804322450877E-3</v>
       </c>
       <c r="C42">
-        <v>-0.48402090314830493</v>
+        <v>-3.6700783404389464E-3</v>
       </c>
       <c r="D42">
-        <v>-1.6763713122458854</v>
+        <v>-1.0268114260779695E-2</v>
       </c>
       <c r="E42">
-        <v>4.9246101348784164</v>
+        <v>7.5780293207878928E-3</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.25">
@@ -4339,13 +4380,13 @@
         <v>41</v>
       </c>
       <c r="B43">
-        <v>3.153166471057093</v>
+        <v>-9.8045407603070058E-4</v>
       </c>
       <c r="C43">
-        <v>1.0635097222546603</v>
+        <v>4.0213313602785396E-4</v>
       </c>
       <c r="D43">
-        <v>-4.2061134141156478</v>
+        <v>7.682448841437834E-5</v>
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.25">
@@ -4353,13 +4394,13 @@
         <v>42</v>
       </c>
       <c r="B44">
-        <v>-1.8758560118363583</v>
+        <v>-4.7071658256904667E-3</v>
       </c>
       <c r="C44">
-        <v>2.5917599666339357</v>
+        <v>5.3913804478558014E-3</v>
       </c>
       <c r="D44">
-        <v>-0.73776215963536174</v>
+        <v>-1.5834041423473928E-3</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.25">
@@ -4367,13 +4408,13 @@
         <v>43</v>
       </c>
       <c r="B45">
-        <v>5.3254240468146685</v>
+        <v>-1.1415743308617216E-2</v>
       </c>
       <c r="C45">
-        <v>-2.746869065624129</v>
+        <v>2.7534588936036094E-3</v>
       </c>
       <c r="D45">
-        <v>-2.1710376565398906</v>
+        <v>7.0645138823537679E-3</v>
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.25">
@@ -4381,16 +4422,16 @@
         <v>44</v>
       </c>
       <c r="B46">
-        <v>-1.1849871582593252</v>
+        <v>1.7086532598915682E-2</v>
       </c>
       <c r="C46">
-        <v>4.1089924565746054</v>
+        <v>-1.890583021844713E-2</v>
       </c>
       <c r="D46">
-        <v>0.96146022929520714</v>
+        <v>-6.4995567402622622E-3</v>
       </c>
       <c r="E46">
-        <v>-4.2119219599441271</v>
+        <v>1.1969471056854142E-2</v>
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.25">
@@ -4398,16 +4439,16 @@
         <v>45</v>
       </c>
       <c r="B47">
-        <v>0.76576125611699553</v>
+        <v>-1.1342868573538865E-2</v>
       </c>
       <c r="C47">
-        <v>1.1281045073145628</v>
+        <v>1.2256960479227282E-2</v>
       </c>
       <c r="D47">
-        <v>0.51484500730789118</v>
+        <v>-5.522893622931649E-3</v>
       </c>
       <c r="E47">
-        <v>-2.890991727385988</v>
+        <v>9.2231708454376411E-3</v>
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.25">
@@ -4415,16 +4456,16 @@
         <v>46</v>
       </c>
       <c r="B48">
-        <v>1.9046745753558953</v>
+        <v>-2.0170614814225829E-3</v>
       </c>
       <c r="C48">
-        <v>-1.8949821734465375</v>
+        <v>7.081484792123692E-3</v>
       </c>
       <c r="D48">
-        <v>5.0744855992740643</v>
+        <v>4.8160619791549949E-3</v>
       </c>
       <c r="E48">
-        <v>-6.0562602263289067</v>
+        <v>-7.660440475503837E-3</v>
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.25">
@@ -4432,13 +4473,13 @@
         <v>47</v>
       </c>
       <c r="B49">
-        <v>2.2480149559055773</v>
+        <v>-1.015095859206388E-2</v>
       </c>
       <c r="C49">
-        <v>-4.5191872474423107</v>
+        <v>7.1769317528078509E-3</v>
       </c>
       <c r="D49">
-        <v>1.700780525278291</v>
+        <v>1.9263783195824496E-3</v>
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.25">
@@ -4446,16 +4487,16 @@
         <v>48</v>
       </c>
       <c r="B50">
-        <v>2.3057422286328495</v>
+        <v>-1.473429192539721E-2</v>
       </c>
       <c r="C50">
-        <v>-2.6784599747150377</v>
+        <v>1.872789071178543E-2</v>
       </c>
       <c r="D50">
-        <v>-0.94899220199443624</v>
+        <v>4.0389457005355891E-3</v>
       </c>
       <c r="E50">
-        <v>0.85698924512986563</v>
+        <v>-3.3968080129133005E-3</v>
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.25">
@@ -4463,29 +4504,33 @@
         <v>50</v>
       </c>
       <c r="B51">
-        <v>1.6321942222532657</v>
+        <v>-2.0400268568289623E-2</v>
       </c>
       <c r="C51">
-        <v>-3.9890261629128032</v>
+        <v>1.1684429786745545E-2</v>
       </c>
       <c r="D51">
-        <v>-2.0231947538285655</v>
+        <v>7.3591211391320684E-3</v>
       </c>
       <c r="E51">
-        <v>3.4117866932957366</v>
+        <v>3.5751595428208931E-2</v>
       </c>
     </row>
   </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:E51">
+    <sortCondition ref="A2:A51"/>
+  </sortState>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BA0BA108-5EF2-431C-ACEE-107C6591567D}">
   <dimension ref="A1:E51"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A13" sqref="A13:A18"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K19" sqref="K19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4512,55 +4557,55 @@
         <v>6</v>
       </c>
       <c r="B2">
-        <v>3.2922151479396443E-2</v>
+        <v>7.7054174070940354E-2</v>
       </c>
       <c r="C2">
-        <v>1.2095040392964112E-2</v>
+        <v>5.3599599905517534</v>
       </c>
       <c r="D2">
-        <v>-0.16051327036103016</v>
+        <v>-4.1541770435083309</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="B3">
-        <v>-7.571117605893575E-2</v>
+        <v>-4.6011325974908361</v>
       </c>
       <c r="C3">
-        <v>-9.5204899100662255E-3</v>
+        <v>1.4721228693396258</v>
       </c>
       <c r="D3">
-        <v>6.9962108426848607E-2</v>
+        <v>2.8850767443704508</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>27</v>
+        <v>8</v>
       </c>
       <c r="B4">
-        <v>-0.13119602454378446</v>
+        <v>-3.3698295671878031</v>
       </c>
       <c r="C4">
-        <v>7.3540116150539583E-2</v>
+        <v>-5.6963922821755242</v>
       </c>
       <c r="D4">
-        <v>4.2386350851090777E-2</v>
+        <v>8.8222888655825749</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>38</v>
+        <v>9</v>
       </c>
       <c r="B5">
-        <v>-4.7615682324369552E-2</v>
+        <v>4.9310189176606789</v>
       </c>
       <c r="C5">
-        <v>-8.2853823243399502E-2</v>
+        <v>-0.53636197914522166</v>
       </c>
       <c r="D5">
-        <v>0.11999241145715164</v>
+        <v>-4.6385899222962159</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
@@ -4568,13 +4613,13 @@
         <v>49</v>
       </c>
       <c r="B6">
-        <v>-0.12732049026076303</v>
+        <v>-3.7633894156726511</v>
       </c>
       <c r="C6">
-        <v>1.4942578271751767E-2</v>
+        <v>-4.8788430397512794</v>
       </c>
       <c r="D6">
-        <v>9.0516085699575644E-2</v>
+        <v>7.9473835625522726</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
@@ -4582,13 +4627,13 @@
         <v>51</v>
       </c>
       <c r="B7">
-        <v>1.328882394106403E-2</v>
+        <v>3.2338067964485604</v>
       </c>
       <c r="C7">
-        <v>6.8431464535699711E-3</v>
+        <v>-4.589119554902795</v>
       </c>
       <c r="D7">
-        <v>-3.5401527936788017E-2</v>
+        <v>1.1113797746734833</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
@@ -4596,13 +4641,13 @@
         <v>52</v>
       </c>
       <c r="B8">
-        <v>-4.601420636196616E-2</v>
+        <v>-2.861799264157503</v>
       </c>
       <c r="C8">
-        <v>-0.11645988384946029</v>
+        <v>-2.2086347064179503</v>
       </c>
       <c r="D8">
-        <v>0.14720453266927269</v>
+        <v>4.8265009867946924</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
@@ -4610,13 +4655,13 @@
         <v>53</v>
       </c>
       <c r="B9">
-        <v>-5.801420636196597E-2</v>
+        <v>0.49938255402431603</v>
       </c>
       <c r="C9">
-        <v>-7.9823520213096411E-2</v>
+        <v>-1.4880892518724933</v>
       </c>
       <c r="D9">
-        <v>0.12256816903290925</v>
+        <v>0.74477371406742254</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
@@ -4624,111 +4669,111 @@
         <v>54</v>
       </c>
       <c r="B10">
-        <v>4.2701073635241279E-3</v>
+        <v>8.4876481511722641</v>
       </c>
       <c r="C10">
-        <v>-4.4829739669727253E-4</v>
+        <v>-3.6807327456336347</v>
       </c>
       <c r="D10">
-        <v>-1.3953032336774288E-2</v>
+        <v>-4.7140591736331121</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="B11">
-        <v>-5.0884621718308987E-2</v>
+        <v>-3.5742831656726541</v>
       </c>
       <c r="C11">
-        <v>3.4742837978831688E-2</v>
+        <v>-1.9118095170240088</v>
       </c>
       <c r="D11">
-        <v>8.2689266086666061E-3</v>
+        <v>5.1075625398249969</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="B12">
-        <v>-9.7874609611923541E-2</v>
+        <v>-2.7101745819613878</v>
       </c>
       <c r="C12">
-        <v>9.7767079663217682E-2</v>
+        <v>2.7405421643303538</v>
       </c>
       <c r="D12">
-        <v>6.6886041636496113E-2</v>
+        <v>5.4084051302702685</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B13">
-        <v>-8.8634471513481292E-2</v>
+        <v>-1.9759621429453782</v>
       </c>
       <c r="C13">
-        <v>8.4010760089933745E-2</v>
+        <v>3.6022024147941747</v>
       </c>
       <c r="D13">
-        <v>-1.1197205774978536E-2</v>
+        <v>-1.9562528010840918</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="B14">
-        <v>-0.19640631343062073</v>
+        <v>1.552702825706658</v>
       </c>
       <c r="C14">
-        <v>6.9081390967676709E-2</v>
+        <v>-0.53881443473560675</v>
       </c>
       <c r="D14">
-        <v>0.13359205832000731</v>
+        <v>-1.3064855597047829</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B15">
-        <v>3.3682763335003536E-2</v>
+        <v>-5.3080113853696211</v>
       </c>
       <c r="C15">
-        <v>5.2691631302054877E-2</v>
+        <v>1.4059713541881136</v>
       </c>
       <c r="D15">
-        <v>-0.10164395217921207</v>
+        <v>3.6581070474007586</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="B16">
-        <v>1.6221572743975177E-3</v>
+        <v>-0.24016290052113864</v>
       </c>
       <c r="C16">
-        <v>6.7631025241448886E-2</v>
+        <v>-4.0907433690676308E-2</v>
       </c>
       <c r="D16">
-        <v>-8.4522740057999923E-2</v>
+        <v>3.7137350431059056E-2</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="B17">
-        <v>2.0492899055194858E-2</v>
+        <v>4.612827250994016</v>
       </c>
       <c r="C17">
-        <v>-0.10039927778885413</v>
+        <v>-4.7340195549027948</v>
       </c>
       <c r="D17">
-        <v>8.5628775093515311E-2</v>
+        <v>0.80893432012803013</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
@@ -4736,330 +4781,330 @@
         <v>55</v>
       </c>
       <c r="C18">
-        <v>-2.3293217182793577E-2</v>
+        <v>-1.9358771306603721</v>
       </c>
       <c r="D18">
-        <v>5.1643926608666686E-2</v>
+        <v>0.64572219891590699</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="B19">
-        <v>0.10015852091076108</v>
+        <v>-3.8727416883999273</v>
       </c>
       <c r="C19">
-        <v>-0.1315598838494603</v>
+        <v>2.3513778430535318E-2</v>
       </c>
       <c r="D19">
-        <v>2.4732850207645707E-2</v>
+        <v>5.3357971989159054</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="B20">
-        <v>7.3500945153185407E-2</v>
+        <v>1.5381098267515911</v>
       </c>
       <c r="C20">
-        <v>-6.3083686979449631E-3</v>
+        <v>-0.7921801609634006</v>
       </c>
       <c r="D20">
-        <v>-8.2462133997393841E-2</v>
+        <v>-0.9898626495689391</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B21">
-        <v>0.14131155121379144</v>
+        <v>3.8696390726994427</v>
       </c>
       <c r="C21">
-        <v>-9.3543217182793584E-2</v>
+        <v>-1.8943825167471511</v>
       </c>
       <c r="D21">
-        <v>5.2803017517757601E-2</v>
+        <v>-0.88906067634836106</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B22">
-        <v>-8.902762775914394E-2</v>
+        <v>3.0607270257687897</v>
       </c>
       <c r="C22">
-        <v>5.6481967092390756E-2</v>
+        <v>-1.1652235680068082</v>
       </c>
       <c r="D22">
-        <v>3.3600929065669222E-2</v>
+        <v>-2.8172696929759837</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B23">
-        <v>1.77433693956097E-2</v>
+        <v>-0.74619320355144358</v>
       </c>
       <c r="C23">
-        <v>-8.0884126273702617E-2</v>
+        <v>0.37797135418810995</v>
       </c>
       <c r="D23">
-        <v>4.7871199335939467E-2</v>
+        <v>0.1242888655825722</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B24">
-        <v>0.29848127445152672</v>
+        <v>0.55216232851339453</v>
       </c>
       <c r="C24">
-        <v>-7.1120912743047271E-2</v>
+        <v>-0.27262765920159798</v>
       </c>
       <c r="D24">
-        <v>-6.9001950769768797E-2</v>
+        <v>-4.6083101478071375</v>
       </c>
       <c r="E24">
-        <v>-4.939069535851328E-2</v>
+        <v>4.730497250123312</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B25">
-        <v>5.1393247670012687E-2</v>
+        <v>-1.9361704762787124</v>
       </c>
       <c r="C25">
-        <v>-0.19125690209888829</v>
+        <v>-2.9283468276300679</v>
       </c>
       <c r="D25">
-        <v>9.1749987214727172E-2</v>
+        <v>4.6783797746734832</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B26">
-        <v>0.12259185424409451</v>
+        <v>-0.90667805203628948</v>
       </c>
       <c r="C26">
-        <v>6.8964358574782211E-2</v>
+        <v>-2.4678771306603724</v>
       </c>
       <c r="D26">
-        <v>-0.20682577036103025</v>
+        <v>3.1306221989159067</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B27">
-        <v>0.14767333061832244</v>
+        <v>-5.6910402221242631</v>
       </c>
       <c r="C27">
-        <v>-0.14830871050553529</v>
+        <v>3.0552334265243806</v>
       </c>
       <c r="D27">
-        <v>-1.939273028282891E-2</v>
+        <v>2.082669119737024</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B28">
-        <v>4.3501892122882288E-2</v>
+        <v>-4.272976347490836</v>
       </c>
       <c r="C28">
-        <v>-0.14212560354642997</v>
+        <v>-0.50372088066037402</v>
       </c>
       <c r="D28">
-        <v>8.7432703813784138E-2</v>
+        <v>5.0869784489159056</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B29">
-        <v>-0.17665056999832979</v>
+        <v>1.3142310388728036</v>
       </c>
       <c r="C29">
-        <v>3.8631025241448833E-2</v>
+        <v>2.0957592329759946</v>
       </c>
       <c r="D29">
-        <v>0.12274998721472731</v>
+        <v>-3.6539232556295453</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B30">
-        <v>2.918112910268942E-2</v>
+        <v>-3.6385581656726531</v>
       </c>
       <c r="C30">
-        <v>3.753857832809334E-2</v>
+        <v>3.7344988163093249</v>
       </c>
       <c r="D30">
-        <v>-7.8145586411526274E-2</v>
+        <v>-1.1730215510840938</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B31">
-        <v>9.0332124360226855E-3</v>
+        <v>1.1217189176606783</v>
       </c>
       <c r="C31">
-        <v>0.11466288388364886</v>
+        <v>4.5768703440870997</v>
       </c>
       <c r="D31">
-        <v>-0.11342274005800007</v>
+        <v>-5.0387717404780341</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B32">
-        <v>4.2593062921626158E-2</v>
+        <v>-4.1308182916416447</v>
       </c>
       <c r="C32">
-        <v>9.5767616755575036E-3</v>
+        <v>7.0865583873100313</v>
       </c>
       <c r="D32">
-        <v>-0.13521336726025501</v>
+        <v>1.6435122623408551</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B33">
-        <v>3.3342784865186218E-3</v>
+        <v>6.8161628570546213</v>
       </c>
       <c r="C33">
-        <v>0.12679769190811535</v>
+        <v>2.0032365057032653</v>
       </c>
       <c r="D33">
-        <v>1.6280290245030263E-2</v>
+        <v>0.11009947164318135</v>
       </c>
       <c r="E33">
-        <v>-7.0017545252805083E-2</v>
+        <v>-8.4691840395172786</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B34">
-        <v>-2.1226327574087319E-2</v>
+        <v>-5.5615871429453829</v>
       </c>
       <c r="C34">
-        <v>-8.7126550516126777E-2</v>
+        <v>5.9435774147941709</v>
       </c>
       <c r="D34">
-        <v>9.3083320548060691E-2</v>
+        <v>-0.62592325562954987</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B35">
-        <v>-4.9597539695299536E-2</v>
+        <v>-4.7797462338544703</v>
       </c>
       <c r="C35">
-        <v>6.9684055544479095E-2</v>
+        <v>4.6353274147941725</v>
       </c>
       <c r="D35">
-        <v>-1.7106073391333378E-2</v>
+        <v>-2.8838096192659104</v>
       </c>
       <c r="E35">
-        <v>7.3414272929013119E-2</v>
+        <v>3.4885432332099904</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B36">
-        <v>4.8256036118617729E-2</v>
+        <v>2.3735911398829028</v>
       </c>
       <c r="C36">
-        <v>7.4055267665691232E-2</v>
+        <v>2.2943390309557889</v>
       </c>
       <c r="D36">
-        <v>-1.6439521792121039E-3</v>
+        <v>-1.1038889121952045</v>
       </c>
       <c r="E36">
-        <v>-4.9305424040683811E-2</v>
+        <v>-3.2107178779011183</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B37">
-        <v>-9.5582990260762918E-2</v>
+        <v>1.7407043343273489</v>
       </c>
       <c r="C37">
-        <v>3.1334623726297292E-2</v>
+        <v>1.7563870738850829</v>
       </c>
       <c r="D37">
-        <v>4.5271767517757494E-2</v>
+        <v>-3.6915681419931841</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B38">
-        <v>4.4917009739237179E-2</v>
+        <v>-0.43335816567265439</v>
       </c>
       <c r="C38">
-        <v>-2.9574467182793492E-2</v>
+        <v>-1.5107208806603736</v>
       </c>
       <c r="D38">
-        <v>-2.1546414300424113E-2</v>
+        <v>1.5519602670977237</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B39">
-        <v>2.535720158606445E-2</v>
+        <v>-4.76343699631781</v>
       </c>
       <c r="C39">
-        <v>-4.8689903311374898E-2</v>
+        <v>1.1506184705126516</v>
       </c>
       <c r="D39">
-        <v>1.8402195846538304E-2</v>
+        <v>3.2106996182707492</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B40">
-        <v>5.2282178804580895E-3</v>
+        <v>3.2518067964485629</v>
       </c>
       <c r="C40">
-        <v>-6.9217459607036028E-2</v>
+        <v>-2.1226650094482462</v>
       </c>
       <c r="D40">
-        <v>4.8719684184424225E-2</v>
+        <v>-1.3730747707810587</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.25">
@@ -5067,13 +5112,13 @@
         <v>39</v>
       </c>
       <c r="B41">
-        <v>-7.683238818014794E-2</v>
+        <v>0.16271588735765005</v>
       </c>
       <c r="C41">
-        <v>9.5540116150539728E-2</v>
+        <v>2.7267895360062946</v>
       </c>
       <c r="D41">
-        <v>-3.3977285512545349E-2</v>
+        <v>-3.1334384071446988</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.25">
@@ -5081,16 +5126,16 @@
         <v>40</v>
       </c>
       <c r="B42">
-        <v>1.8815496457695619E-2</v>
+        <v>-0.85369614283160311</v>
       </c>
       <c r="C42">
-        <v>0.11984508068954682</v>
+        <v>2.0717785753357578</v>
       </c>
       <c r="D42">
-        <v>-4.4945048246265683E-2</v>
+        <v>-3.4951766405425073</v>
       </c>
       <c r="E42">
-        <v>-0.10983854285613814</v>
+        <v>5.0376307573879409</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.25">
@@ -5098,13 +5143,13 @@
         <v>41</v>
       </c>
       <c r="B43">
-        <v>-4.6773254268134903E-2</v>
+        <v>4.9466855843273496</v>
       </c>
       <c r="C43">
-        <v>-0.17021745960703599</v>
+        <v>-0.37005894884218776</v>
       </c>
       <c r="D43">
-        <v>0.20126513872987883</v>
+        <v>-4.820559619265909</v>
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.25">
@@ -5112,13 +5157,13 @@
         <v>42</v>
       </c>
       <c r="B44">
-        <v>0.12826536353050708</v>
+        <v>-1.0461589904527138</v>
       </c>
       <c r="C44">
-        <v>-0.19908940486607798</v>
+        <v>1.3953692036504757</v>
       </c>
       <c r="D44">
-        <v>6.4297678928833923E-2</v>
+        <v>-0.50064661828839663</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.25">
@@ -5126,13 +5171,13 @@
         <v>43</v>
       </c>
       <c r="B45">
-        <v>-8.7321830672000098E-2</v>
+        <v>7.7050793343273467</v>
       </c>
       <c r="C45">
-        <v>8.9684055544479252E-2</v>
+        <v>-2.8360561079331004</v>
       </c>
       <c r="D45">
-        <v>-2.4924255209515082E-2</v>
+        <v>-4.5212840510840948</v>
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.25">
@@ -5140,16 +5185,16 @@
         <v>44</v>
       </c>
       <c r="B46">
-        <v>9.452349624550381E-2</v>
+        <v>-0.14220236493269633</v>
       </c>
       <c r="C46">
-        <v>-1.4676357874448189E-3</v>
+        <v>8.0862349200795851</v>
       </c>
       <c r="D46">
-        <v>-0.17850125501617747</v>
+        <v>-2.2027475685259548</v>
       </c>
       <c r="E46">
-        <v>0.1465353088698165</v>
+        <v>-5.3894583524136879</v>
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.25">
@@ -5157,16 +5202,16 @@
         <v>45</v>
       </c>
       <c r="B47">
-        <v>-6.0664147709871052E-2</v>
+        <v>0.25731116572269491</v>
       </c>
       <c r="C47">
-        <v>0.19096153968824239</v>
+        <v>5.8107211780077028</v>
       </c>
       <c r="D47">
-        <v>-0.15137404379302455</v>
+        <v>-2.3333249469614716</v>
       </c>
       <c r="E47">
-        <v>9.214630252732188E-2</v>
+        <v>-3.3597902763037513</v>
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.25">
@@ -5174,16 +5219,16 @@
         <v>46</v>
       </c>
       <c r="B48">
-        <v>-7.6740774367603834E-2</v>
+        <v>2.8072035547290408</v>
       </c>
       <c r="C48">
-        <v>8.4177184508538408E-2</v>
+        <v>-1.6932682511677697</v>
       </c>
       <c r="D48">
-        <v>-9.327502645028353E-2</v>
+        <v>6.840231078408511</v>
       </c>
       <c r="E48">
-        <v>0.17568047405488182</v>
+        <v>-8.3136615236610414</v>
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.25">
@@ -5191,13 +5236,13 @@
         <v>47</v>
       </c>
       <c r="B49">
-        <v>-5.6044509392269196E-2</v>
+        <v>3.7518370994788626</v>
       </c>
       <c r="C49">
-        <v>0.16934915850717247</v>
+        <v>-4.7146801609634021</v>
       </c>
       <c r="D49">
-        <v>-0.10468296628969069</v>
+        <v>0.21793280497651235</v>
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.25">
@@ -5205,16 +5250,16 @@
         <v>48</v>
       </c>
       <c r="B50">
-        <v>0.12210700575924592</v>
+        <v>6.5622310388728016</v>
       </c>
       <c r="C50">
-        <v>2.6570419180842807E-2</v>
+        <v>-4.1227862215694628</v>
       </c>
       <c r="D50">
-        <v>1.768938115412122E-2</v>
+        <v>-1.355377801084092</v>
       </c>
       <c r="E50">
-        <v>-8.9972090707350502E-2</v>
+        <v>-0.62375222133546349</v>
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.25">
@@ -5222,29 +5267,33 @@
         <v>50</v>
       </c>
       <c r="B51">
-        <v>-1.4584375433600591E-2</v>
+        <v>3.1921354088887526</v>
       </c>
       <c r="C51">
-        <v>0.15331364087143301</v>
+        <v>-5.2377654879171498</v>
       </c>
       <c r="D51">
-        <v>-1.0385578973470387E-2</v>
+        <v>-4.2082661583408685</v>
       </c>
       <c r="E51">
-        <v>-9.9155796854950948E-2</v>
+        <v>4.5215776032259427</v>
       </c>
     </row>
   </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:E51">
+    <sortCondition ref="A2:A51"/>
+  </sortState>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0034BC23-810C-444D-A667-E8709E43CD13}">
   <dimension ref="A1:E51"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H29" sqref="H29"/>
+    <sheetView topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="J24" sqref="J24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5271,55 +5320,55 @@
         <v>6</v>
       </c>
       <c r="B2">
-        <v>-1.1196314102564076</v>
+        <v>3.3425693112061512E-2</v>
       </c>
       <c r="C2">
-        <v>5.7912007575757611</v>
+        <v>1.1624003835584495E-2</v>
       </c>
       <c r="D2">
-        <v>-3.1447992424242384</v>
+        <v>-0.16060120190411939</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="B3">
-        <v>-5.797818181818184</v>
+        <v>-7.5203105091524461E-2</v>
       </c>
       <c r="C3">
-        <v>1.9033636363636335</v>
+        <v>-9.991526467445843E-3</v>
       </c>
       <c r="D3">
-        <v>3.8944545454545429</v>
+        <v>6.9874176883759395E-2</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>27</v>
+        <v>8</v>
       </c>
       <c r="B4">
-        <v>-4.5665151515151505</v>
+        <v>-0.13068795357637317</v>
       </c>
       <c r="C4">
-        <v>-5.2651515151515165</v>
+        <v>7.3069079593159975E-2</v>
       </c>
       <c r="D4">
-        <v>9.831666666666667</v>
+        <v>4.2298419308001559E-2</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>38</v>
+        <v>9</v>
       </c>
       <c r="B5">
-        <v>3.7343333333333315</v>
+        <v>-4.7078081098231861E-2</v>
       </c>
       <c r="C5">
-        <v>-0.10512121212121399</v>
+        <v>-8.3324859800779111E-2</v>
       </c>
       <c r="D5">
-        <v>-3.6292121212121238</v>
+        <v>0.11990447991406242</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
@@ -5327,13 +5376,13 @@
         <v>49</v>
       </c>
       <c r="B6">
-        <v>-4.9600749999999989</v>
+        <v>-0.12686138935642705</v>
       </c>
       <c r="C6">
-        <v>-4.4476022727272717</v>
+        <v>1.4471541714372149E-2</v>
       </c>
       <c r="D6">
-        <v>8.9567613636363657</v>
+        <v>9.0428154156486418E-2</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
@@ -5341,13 +5390,13 @@
         <v>51</v>
       </c>
       <c r="B7">
-        <v>2.0371212121212126</v>
+        <v>1.3796894908475325E-2</v>
       </c>
       <c r="C7">
-        <v>-4.1578787878787873</v>
+        <v>6.3721098961903536E-3</v>
       </c>
       <c r="D7">
-        <v>2.1207575757575756</v>
+        <v>-3.5489459479877243E-2</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
@@ -5355,13 +5404,13 @@
         <v>52</v>
       </c>
       <c r="B8">
-        <v>-4.0584848484848512</v>
+        <v>-4.5506135394554864E-2</v>
       </c>
       <c r="C8">
-        <v>-1.7773939393939424</v>
+        <v>-0.11693092040683992</v>
       </c>
       <c r="D8">
-        <v>5.8358787878787846</v>
+        <v>0.14711660112618349</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
@@ -5369,13 +5418,13 @@
         <v>53</v>
       </c>
       <c r="B9">
-        <v>-0.69730303030303176</v>
+        <v>-5.7506135394554674E-2</v>
       </c>
       <c r="C9">
-        <v>-1.0568484848484856</v>
+        <v>-8.0294556770476033E-2</v>
       </c>
       <c r="D9">
-        <v>1.7541515151515148</v>
+        <v>0.12248023748982004</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
@@ -5383,111 +5432,111 @@
         <v>54</v>
       </c>
       <c r="B10">
-        <v>7.2909625668449172</v>
+        <v>4.7781783309354224E-3</v>
       </c>
       <c r="C10">
-        <v>-3.249491978609627</v>
+        <v>-9.1933395407689013E-4</v>
       </c>
       <c r="D10">
-        <v>-3.70468137254902</v>
+        <v>-1.4048814726756972E-2</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="B11">
-        <v>-4.7709687500000015</v>
+        <v>-5.0347020492171296E-2</v>
       </c>
       <c r="C11">
-        <v>-1.4805687500000011</v>
+        <v>3.4313705722323264E-2</v>
       </c>
       <c r="D11">
-        <v>6.116940340909089</v>
+        <v>8.1809950655773855E-3</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="B12">
-        <v>-3.9068601662887357</v>
+        <v>-9.7352763165721459E-2</v>
       </c>
       <c r="C12">
-        <v>3.1717829313543615</v>
+        <v>9.7296043105838059E-2</v>
       </c>
       <c r="D12">
-        <v>6.4177829313543606</v>
+        <v>6.6798110093406887E-2</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B13">
-        <v>-3.172647727272726</v>
+        <v>-8.8126400546070002E-2</v>
       </c>
       <c r="C13">
-        <v>4.033443181818182</v>
+        <v>8.3539723532554122E-2</v>
       </c>
       <c r="D13">
-        <v>-0.94687499999999969</v>
+        <v>-1.1334107381143066E-2</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="B14">
-        <v>0.35601724137931007</v>
+        <v>-0.19588882144693728</v>
       </c>
       <c r="C14">
-        <v>-0.10757366771159903</v>
+        <v>6.8610354410297086E-2</v>
       </c>
       <c r="D14">
-        <v>-0.29710775862069072</v>
+        <v>0.13354767495025194</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B15">
-        <v>-6.504696969696969</v>
+        <v>3.4190834302414833E-2</v>
       </c>
       <c r="C15">
-        <v>1.8372121212121213</v>
+        <v>5.2220594744675261E-2</v>
       </c>
       <c r="D15">
-        <v>4.6674848484848503</v>
+        <v>-0.1017318837223013</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="B16">
-        <v>-1.4368484848484864</v>
+        <v>2.1302282418088122E-3</v>
       </c>
       <c r="C16">
-        <v>0.39033333333333142</v>
+        <v>6.7159988684069263E-2</v>
       </c>
       <c r="D16">
-        <v>1.0465151515151512</v>
+        <v>-8.4610671601089135E-2</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="B17">
-        <v>3.4161416666666682</v>
+        <v>2.093092524100687E-2</v>
       </c>
       <c r="C17">
-        <v>-4.3027787878787871</v>
+        <v>-0.10087031434623374</v>
       </c>
       <c r="D17">
-        <v>1.8183121212121223</v>
+        <v>8.5540843550426085E-2</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
@@ -5495,330 +5544,330 @@
         <v>55</v>
       </c>
       <c r="C18">
-        <v>-2.7901363636363636</v>
+        <v>-3.5515335991255427E-2</v>
       </c>
       <c r="D18">
-        <v>2.7901363636363636</v>
+        <v>6.5399133763157646E-2</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="B19">
-        <v>-5.0694272727272756</v>
+        <v>0.10066659187817238</v>
       </c>
       <c r="C19">
-        <v>0.45475454545454302</v>
+        <v>-0.13203092040683992</v>
       </c>
       <c r="D19">
-        <v>6.3451749999999976</v>
+        <v>2.4574873882957204E-2</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="B20">
-        <v>0.34142424242424335</v>
+        <v>7.400901612059671E-2</v>
       </c>
       <c r="C20">
-        <v>-0.36093939393939289</v>
+        <v>-6.7794052553245806E-3</v>
       </c>
       <c r="D20">
-        <v>1.9515151515153081E-2</v>
+        <v>-8.2550065540483067E-2</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B21">
-        <v>2.9753863636363644</v>
+        <v>0.12944594353426833</v>
       </c>
       <c r="C21">
-        <v>-1.6990681818181812</v>
+        <v>-8.5776133508862526E-2</v>
       </c>
       <c r="D21">
-        <v>0.42275000000000063</v>
+        <v>4.0341407327733989E-2</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B22">
-        <v>1.8640414414414421</v>
+        <v>-8.8488480252394461E-2</v>
       </c>
       <c r="C22">
-        <v>-0.73398280098280044</v>
+        <v>5.601093053501114E-2</v>
       </c>
       <c r="D22">
-        <v>-1.8078918918918916</v>
+        <v>3.3512997522579996E-2</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B23">
-        <v>-1.9428787878787921</v>
+        <v>1.8251440363020996E-2</v>
       </c>
       <c r="C23">
-        <v>0.80921212121211805</v>
+        <v>-8.1355162831082239E-2</v>
       </c>
       <c r="D23">
-        <v>1.1336666666666644</v>
+        <v>4.7783267792850248E-2</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B24">
-        <v>-0.64452325581395331</v>
+        <v>0.29903124971980921</v>
       </c>
       <c r="C24">
-        <v>0.15861310782240973</v>
+        <v>-7.1591949300426894E-2</v>
       </c>
       <c r="D24">
-        <v>-3.5989323467230454</v>
+        <v>-6.9089882312858023E-2</v>
       </c>
       <c r="E24">
-        <v>4.0262494714587742</v>
+        <v>-4.8882624391101984E-2</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B25">
-        <v>-3.1328560606060605</v>
+        <v>5.1866398386697987E-2</v>
       </c>
       <c r="C25">
-        <v>-2.4971060606060602</v>
+        <v>-0.19171851763999576</v>
       </c>
       <c r="D25">
-        <v>5.6877575757575753</v>
+        <v>9.166205567163796E-2</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B26">
-        <v>-2.1033636363636372</v>
+        <v>0.1230999252115058</v>
       </c>
       <c r="C26">
-        <v>-2.0366363636363647</v>
+        <v>6.8493322017402603E-2</v>
       </c>
       <c r="D26">
-        <v>4.1399999999999988</v>
+        <v>-0.20691370190411948</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B27">
-        <v>-6.8877258064516109</v>
+        <v>0.14819082260200589</v>
       </c>
       <c r="C27">
-        <v>3.4864741935483883</v>
+        <v>-0.14877032604664275</v>
       </c>
       <c r="D27">
-        <v>3.0920469208211161</v>
+        <v>-1.9480661825918132E-2</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B28">
-        <v>-5.4696619318181838</v>
+        <v>4.4009963090293584E-2</v>
       </c>
       <c r="C28">
-        <v>-7.248011363636632E-2</v>
+        <v>-0.1425966401038096</v>
       </c>
       <c r="D28">
-        <v>6.0963562499999977</v>
+        <v>8.7354193286967072E-2</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B29">
-        <v>0.11754545454545577</v>
+        <v>-0.1761424990309185</v>
       </c>
       <c r="C29">
-        <v>2.5270000000000024</v>
+        <v>3.8159988684069217E-2</v>
       </c>
       <c r="D29">
-        <v>-2.6445454545454532</v>
+        <v>0.1226620556716381</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B30">
-        <v>-4.835243750000001</v>
+        <v>2.9731104370971907E-2</v>
       </c>
       <c r="C30">
-        <v>4.1657395833333331</v>
+        <v>3.7059690923820256E-2</v>
       </c>
       <c r="D30">
-        <v>-0.16364375000000173</v>
+        <v>-7.8191613653744302E-2</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B31">
-        <v>-7.4966666666669471E-2</v>
+        <v>9.5831877043051732E-3</v>
       </c>
       <c r="C31">
-        <v>5.0081111111111074</v>
+        <v>0.11418399647937577</v>
       </c>
       <c r="D31">
-        <v>-4.029393939393942</v>
+        <v>-0.11351067160108928</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B32">
-        <v>-5.3275038759689926</v>
+        <v>4.3108751272905442E-2</v>
       </c>
       <c r="C32">
-        <v>7.517799154334039</v>
+        <v>9.1057251181778862E-3</v>
       </c>
       <c r="D32">
-        <v>2.6528900634249473</v>
+        <v>-0.13530129880334421</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B33">
-        <v>5.6194772727272735</v>
+        <v>3.8423494539299163E-3</v>
       </c>
       <c r="C33">
-        <v>2.434477272727273</v>
+        <v>0.12632665535073573</v>
       </c>
       <c r="D33">
-        <v>1.1194772727272735</v>
+        <v>1.6192358701941044E-2</v>
       </c>
       <c r="E33">
-        <v>-9.1734318181818164</v>
+        <v>-6.9509474285393794E-2</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B34">
-        <v>-6.7582727272727308</v>
+        <v>-2.0718256606676023E-2</v>
       </c>
       <c r="C34">
-        <v>6.3748181818181786</v>
+        <v>-8.75975870735064E-2</v>
       </c>
       <c r="D34">
-        <v>0.38345454545454222</v>
+        <v>9.2995389004971465E-2</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B35">
-        <v>-5.9764318181818181</v>
+        <v>-4.908946872788824E-2</v>
       </c>
       <c r="C35">
-        <v>5.0665681818181802</v>
+        <v>6.9213018987099473E-2</v>
       </c>
       <c r="D35">
-        <v>-1.874431818181818</v>
+        <v>-1.7194004934422601E-2</v>
       </c>
       <c r="E35">
-        <v>2.7842954545454526</v>
+        <v>7.3922343896424408E-2</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B36">
-        <v>1.176905555555555</v>
+        <v>4.8756256239135563E-2</v>
       </c>
       <c r="C36">
-        <v>2.7255797979797967</v>
+        <v>7.358423110831161E-2</v>
       </c>
       <c r="D36">
-        <v>-9.4511111111112267E-2</v>
+        <v>-1.7318837223013245E-3</v>
       </c>
       <c r="E36">
-        <v>-3.9149656565656561</v>
+        <v>-4.8797353073272515E-2</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B37">
-        <v>0.54401875000000111</v>
+        <v>-9.5123889356426933E-2</v>
       </c>
       <c r="C37">
-        <v>2.1876278409090903</v>
+        <v>3.0863587168917673E-2</v>
       </c>
       <c r="D37">
-        <v>-2.6821903409090919</v>
+        <v>4.5183835974668268E-2</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B38">
-        <v>-1.6300437500000022</v>
+        <v>4.5376110643573164E-2</v>
       </c>
       <c r="C38">
-        <v>-1.0794801136363659</v>
+        <v>-3.0045503740173108E-2</v>
       </c>
       <c r="D38">
-        <v>2.5613380681818159</v>
+        <v>-2.1634345843513335E-2</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B39">
-        <v>-5.9601225806451579</v>
+        <v>2.5874693569747899E-2</v>
       </c>
       <c r="C39">
-        <v>1.5818592375366594</v>
+        <v>-4.9131409610028112E-2</v>
       </c>
       <c r="D39">
-        <v>4.2200774193548414</v>
+        <v>1.8356168604320277E-2</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B40">
-        <v>2.055121212121215</v>
+        <v>5.7362888478693841E-3</v>
       </c>
       <c r="C40">
-        <v>-1.6914242424242387</v>
+        <v>-6.968849616441565E-2</v>
       </c>
       <c r="D40">
-        <v>-0.36369696969696652</v>
+        <v>4.8631752641335006E-2</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.25">
@@ -5826,13 +5875,13 @@
         <v>39</v>
       </c>
       <c r="B41">
-        <v>-1.0339696969696979</v>
+        <v>-7.6324317212736636E-2</v>
       </c>
       <c r="C41">
-        <v>3.1580303030303023</v>
+        <v>9.5069079593160119E-2</v>
       </c>
       <c r="D41">
-        <v>-2.1240606060606066</v>
+        <v>-3.4065217055634568E-2</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.25">
@@ -5840,16 +5889,16 @@
         <v>40</v>
       </c>
       <c r="B42">
-        <v>-2.0503817271589506</v>
+        <v>1.9355144231701846E-2</v>
       </c>
       <c r="C42">
-        <v>2.5030193423597655</v>
+        <v>0.11937404413216721</v>
       </c>
       <c r="D42">
-        <v>-2.4857988394584152</v>
+        <v>-4.5032979789354902E-2</v>
       </c>
       <c r="E42">
-        <v>4.3333829787234031</v>
+        <v>-0.1093275278211418</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.25">
@@ -5857,13 +5906,13 @@
         <v>41</v>
       </c>
       <c r="B43">
-        <v>3.7500000000000018</v>
+        <v>-4.6347796358856795E-2</v>
       </c>
       <c r="C43">
-        <v>6.1181818181819961E-2</v>
+        <v>-0.17068849616441562</v>
       </c>
       <c r="D43">
-        <v>-3.8111818181818169</v>
+        <v>0.20117720718678961</v>
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.25">
@@ -5871,13 +5920,13 @@
         <v>42</v>
       </c>
       <c r="B44">
-        <v>-2.2428445747800616</v>
+        <v>0.12877343449791837</v>
       </c>
       <c r="C44">
-        <v>1.8266099706744834</v>
+        <v>-0.19956044142345761</v>
       </c>
       <c r="D44">
-        <v>0.50873118279569551</v>
+        <v>6.4266775515903971E-2</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.25">
@@ -5885,13 +5934,13 @@
         <v>43</v>
       </c>
       <c r="B45">
-        <v>6.5083937499999989</v>
+        <v>-8.6804338688316648E-2</v>
       </c>
       <c r="C45">
-        <v>-2.4048153409090927</v>
+        <v>8.9213018987099643E-2</v>
       </c>
       <c r="D45">
-        <v>-3.5119062500000022</v>
+        <v>-2.5012186752604304E-2</v>
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.25">
@@ -5899,16 +5948,16 @@
         <v>44</v>
       </c>
       <c r="B46">
-        <v>-1.3388879492600443</v>
+        <v>9.5031567212915113E-2</v>
       </c>
       <c r="C46">
-        <v>8.5174756871035928</v>
+        <v>-1.9386723448244366E-3</v>
       </c>
       <c r="D46">
-        <v>-1.1933697674418628</v>
+        <v>-0.1785472822583955</v>
       </c>
       <c r="E46">
-        <v>-6.0937061310782257</v>
+        <v>0.14704337983722782</v>
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.25">
@@ -5916,16 +5965,16 @@
         <v>45</v>
       </c>
       <c r="B47">
-        <v>-0.93937441860465221</v>
+        <v>-6.0237530090134106E-2</v>
       </c>
       <c r="C47">
-        <v>6.2419619450317105</v>
+        <v>0.19049050313086277</v>
       </c>
       <c r="D47">
-        <v>-1.3239471458773793</v>
+        <v>-0.15146197533611377</v>
       </c>
       <c r="E47">
-        <v>-4.0640380549682886</v>
+        <v>9.2654373494733169E-2</v>
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.25">
@@ -5933,16 +5982,16 @@
         <v>46</v>
       </c>
       <c r="B48">
-        <v>1.6105179704016932</v>
+        <v>-7.6232703400192531E-2</v>
       </c>
       <c r="C48">
-        <v>-1.262027484143762</v>
+        <v>8.3706147951158799E-2</v>
       </c>
       <c r="D48">
-        <v>7.8496088794926031</v>
+        <v>-9.3333427734646354E-2</v>
       </c>
       <c r="E48">
-        <v>-9.0179093023255792</v>
+        <v>0.17613957495921781</v>
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.25">
@@ -5950,13 +5999,13 @@
         <v>47</v>
       </c>
       <c r="B49">
-        <v>2.5551515151515147</v>
+        <v>-5.5536438424857899E-2</v>
       </c>
       <c r="C49">
-        <v>-4.2834393939393944</v>
+        <v>0.16888754296606501</v>
       </c>
       <c r="D49">
-        <v>1.2273106060606045</v>
+        <v>-0.10470302004305128</v>
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.25">
@@ -5964,16 +6013,16 @@
         <v>48</v>
       </c>
       <c r="B50">
-        <v>5.3655454545454537</v>
+        <v>0.12261507672665721</v>
       </c>
       <c r="C50">
-        <v>-3.6915454545454547</v>
+        <v>2.6099382623463188E-2</v>
       </c>
       <c r="D50">
-        <v>-0.34599999999999975</v>
+        <v>1.7601449611031997E-2</v>
       </c>
       <c r="E50">
-        <v>-1.3280000000000014</v>
+        <v>-8.9464019739939213E-2</v>
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.25">
@@ -5981,29 +6030,33 @@
         <v>50</v>
       </c>
       <c r="B51">
-        <v>1.995449824561405</v>
+        <v>-1.4027903508398297E-2</v>
       </c>
       <c r="C51">
-        <v>-4.8065247208931421</v>
+        <v>0.15284260431405339</v>
       </c>
       <c r="D51">
-        <v>-3.1988883572567768</v>
+        <v>-1.0473510516559608E-2</v>
       </c>
       <c r="E51">
-        <v>3.8173298245614053</v>
+        <v>-9.8696695950614963E-2</v>
       </c>
     </row>
   </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:E51">
+    <sortCondition ref="A2:A51"/>
+  </sortState>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5BF35B62-4BA2-4171-99B6-945AA2859FC4}">
   <dimension ref="A1:E51"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J26" sqref="J26"/>
+      <selection activeCell="I23" sqref="I23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6030,55 +6083,55 @@
         <v>6</v>
       </c>
       <c r="B2">
-        <v>2.7033242963372356E-3</v>
+        <v>-8.4874222121184326E-2</v>
       </c>
       <c r="C2">
-        <v>-8.7531391009898034E-3</v>
+        <v>2.2646315950933524</v>
       </c>
       <c r="D2">
-        <v>1.7923154444647428E-3</v>
+        <v>-0.72316034216327119</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="B3">
-        <v>3.500648777798071E-3</v>
+        <v>-1.7763888799271241</v>
       </c>
       <c r="C3">
-        <v>-1.3862987585838291E-2</v>
+        <v>1.1751997769115354</v>
       </c>
       <c r="D3">
-        <v>1.0591557868707161E-2</v>
+        <v>0.60740783965491196</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>27</v>
+        <v>8</v>
       </c>
       <c r="B4">
-        <v>5.137012414161716E-3</v>
+        <v>-1.0954797890180343</v>
       </c>
       <c r="C4">
-        <v>2.9227921505070809E-2</v>
+        <v>-2.9902547685430108</v>
       </c>
       <c r="D4">
-        <v>-3.4135714858565556E-2</v>
+        <v>4.0919532942003656</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>38</v>
+        <v>9</v>
       </c>
       <c r="B5">
-        <v>-2.2135613835221789E-2</v>
+        <v>2.8925296960930256</v>
       </c>
       <c r="C5">
-        <v>2.0561254838404139E-2</v>
+        <v>0.39126038297214194</v>
       </c>
       <c r="D5">
-        <v>5.6125483840413807E-4</v>
+        <v>-3.2483497361026639</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
@@ -6086,13 +6139,13 @@
         <v>49</v>
       </c>
       <c r="B6">
-        <v>7.4943206269123544E-5</v>
+        <v>-0.95383179246899918</v>
       </c>
       <c r="C6">
-        <v>-5.8895027373534392E-3</v>
+        <v>-2.225226359452102</v>
       </c>
       <c r="D6">
-        <v>6.0195881717374691E-3</v>
+        <v>3.037890794200365</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
@@ -6100,13 +6153,13 @@
         <v>51</v>
       </c>
       <c r="B7">
-        <v>-9.3478360706867741E-3</v>
+        <v>1.5717929382546936</v>
       </c>
       <c r="C7">
-        <v>1.8561254838404134E-2</v>
+        <v>-2.3002547685430108</v>
       </c>
       <c r="D7">
-        <v>-8.9841997070504113E-3</v>
+        <v>0.73468056692763861</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
@@ -6114,13 +6167,13 @@
         <v>52</v>
       </c>
       <c r="B8">
-        <v>2.7470345747495049E-2</v>
+        <v>-1.4003282738665181</v>
       </c>
       <c r="C8">
-        <v>-4.9841997070504051E-3</v>
+        <v>1.8533110244868922E-2</v>
       </c>
       <c r="D8">
-        <v>-2.2256926979777675E-2</v>
+        <v>1.3880139002609724</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
@@ -6128,13 +6181,13 @@
         <v>53</v>
       </c>
       <c r="B9">
-        <v>4.5006487777980771E-3</v>
+        <v>0.69936869583045047</v>
       </c>
       <c r="C9">
-        <v>-1.1681169404020105E-2</v>
+        <v>-0.35540628369452615</v>
       </c>
       <c r="D9">
-        <v>7.4097396868889878E-3</v>
+        <v>-0.33774367549660478</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
@@ -6142,111 +6195,111 @@
         <v>54</v>
       </c>
       <c r="B10">
-        <v>-1.5340705945909595E-2</v>
+        <v>4.1440924034953355</v>
       </c>
       <c r="C10">
-        <v>7.5020314499949392E-4</v>
+        <v>-1.8225007578478223</v>
       </c>
       <c r="D10">
-        <v>1.2927770003396661E-2</v>
+        <v>-2.1383491064226341</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="B11">
-        <v>-7.5352350473429997E-3</v>
+        <v>-0.63819000087667177</v>
       </c>
       <c r="C11">
-        <v>-3.3816385084185544E-3</v>
+        <v>-1.4646478534602325</v>
       </c>
       <c r="D11">
-        <v>9.070724535373836E-3</v>
+        <v>2.0400214760185484</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="B12">
-        <v>-3.9353771677790991E-3</v>
+        <v>-0.53079282838495745</v>
       </c>
       <c r="C12">
-        <v>-7.213018507297787E-3</v>
+        <v>0.70609031494493024</v>
       </c>
       <c r="D12">
-        <v>1.6332436038156761E-2</v>
+        <v>1.9982983776883072</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B13">
-        <v>2.3263906353555654E-2</v>
+        <v>-0.33681501629076233</v>
       </c>
       <c r="C13">
-        <v>-5.5542754646261648E-3</v>
+        <v>1.1820463678206243</v>
       </c>
       <c r="D13">
-        <v>-1.9262556793730873E-2</v>
+        <v>-0.84103507288696444</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="B14">
-        <v>3.2565520480845822E-2</v>
+        <v>2.5117020111468653</v>
       </c>
       <c r="C14">
-        <v>-9.1304901981684814E-3</v>
+        <v>-1.121195207414482</v>
       </c>
       <c r="D14">
-        <v>-2.8339931287212159E-2</v>
+        <v>-1.5208430999142324</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B15">
-        <v>1.8197618474767766E-2</v>
+        <v>-2.9145706981089439</v>
       </c>
       <c r="C15">
-        <v>-7.0751087979595041E-3</v>
+        <v>0.26610886782062421</v>
       </c>
       <c r="D15">
-        <v>-1.0893290616141322E-2</v>
+        <v>2.6546805669276372</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="B16">
-        <v>3.6521639293132205E-3</v>
+        <v>0.18209596855772325</v>
       </c>
       <c r="C16">
-        <v>-2.6205633434140492E-3</v>
+        <v>-0.80722446551270832</v>
       </c>
       <c r="D16">
-        <v>-8.023815252322299E-4</v>
+        <v>0.63134723359430511</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="B17">
-        <v>6.2720674078715795E-3</v>
+        <v>2.3641516871171184</v>
       </c>
       <c r="C17">
-        <v>-8.1872300100807125E-3</v>
+        <v>-1.5412547685430096</v>
       </c>
       <c r="D17">
-        <v>3.2673154444647409E-3</v>
+        <v>-0.38177397852690653</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
@@ -6254,330 +6307,330 @@
         <v>55</v>
       </c>
       <c r="C18">
-        <v>-3.1423593646444349E-2</v>
+        <v>-0.84402100230924548</v>
       </c>
       <c r="D18">
-        <v>3.1576406353555644E-2</v>
+        <v>-9.05997914385889E-2</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="B19">
-        <v>-5.3720784949291937E-3</v>
+        <v>-3.2425403950786387</v>
       </c>
       <c r="C19">
-        <v>-1.3720784949291923E-3</v>
+        <v>1.4645028072145663</v>
       </c>
       <c r="D19">
-        <v>8.7804007412049193E-3</v>
+        <v>2.7221150733658215</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="B20">
-        <v>7.0158002929495847E-3</v>
+        <v>0.29361112007287393</v>
       </c>
       <c r="C20">
-        <v>1.0288527565676858E-2</v>
+        <v>4.2906860024424535E-3</v>
       </c>
       <c r="D20">
-        <v>-1.7075108797959506E-2</v>
+        <v>-0.29168306943599992</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B21">
-        <v>-7.1904819189889501E-4</v>
+        <v>0.99215234628852078</v>
       </c>
       <c r="C21">
-        <v>4.2354972626465603E-3</v>
+        <v>-6.5699426919981749E-2</v>
       </c>
       <c r="D21">
-        <v>-7.4463209191716227E-3</v>
+        <v>-1.2331418432203523</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B22">
-        <v>-1.3312493868629587E-2</v>
+        <v>2.4235744944915356</v>
       </c>
       <c r="C22">
-        <v>8.0859308574238555E-4</v>
+        <v>-0.97163068991893164</v>
       </c>
       <c r="D22">
-        <v>1.7444956722106022E-2</v>
+        <v>-1.9994226271755551</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B23">
-        <v>3.9248912020404952E-3</v>
+        <v>-0.99366160719985008</v>
       </c>
       <c r="C23">
-        <v>-2.2569269797776876E-3</v>
+        <v>1.4542906860024456</v>
       </c>
       <c r="D23">
-        <v>-1.4387451615958675E-3</v>
+        <v>-0.45441034216326914</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B24">
-        <v>-1.3026696647953437E-2</v>
+        <v>-2.1873258337661223</v>
       </c>
       <c r="C24">
-        <v>1.1480211850384408E-2</v>
+        <v>0.38881499889885079</v>
       </c>
       <c r="D24">
-        <v>2.7571120941293499E-2</v>
+        <v>-2.1053405747214091</v>
       </c>
       <c r="E24">
-        <v>-2.7428879058706498E-2</v>
+        <v>3.1384733585572078</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B25">
-        <v>3.635193738534161E-3</v>
+        <v>-1.522216612193076</v>
       </c>
       <c r="C25">
-        <v>-2.9424963409670354E-4</v>
+        <v>0.47195837958426878</v>
       </c>
       <c r="D25">
-        <v>-2.22662394947465E-3</v>
+        <v>1.3319532942003649</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B26">
-        <v>-2.7720784949292021E-3</v>
+        <v>-1.9179040314422748</v>
       </c>
       <c r="C26">
-        <v>1.1955194232343523E-2</v>
+        <v>-2.0572244655127063</v>
       </c>
       <c r="D26">
-        <v>-8.9538966767473849E-3</v>
+        <v>3.9813472335943065</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B27">
-        <v>1.034338477450544E-2</v>
+        <v>-4.1702813036473527</v>
       </c>
       <c r="C27">
-        <v>-7.0566152254945627E-3</v>
+        <v>3.0002164441003982</v>
       </c>
       <c r="D27">
-        <v>-1.3253531772361475E-3</v>
+        <v>0.95784772235285831</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B28">
-        <v>-5.9235936464443577E-3</v>
+        <v>-2.7101956981089437</v>
       </c>
       <c r="C28">
-        <v>1.1349133626282919E-2</v>
+        <v>1.3641202314569885</v>
       </c>
       <c r="D28">
-        <v>-4.9275829674300439E-3</v>
+        <v>1.5066323514185538</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B29">
-        <v>-3.180238152523223E-2</v>
+        <v>2.1145202109819667</v>
       </c>
       <c r="C29">
-        <v>1.6379436656585956E-2</v>
+        <v>0.54429068600244479</v>
       </c>
       <c r="D29">
-        <v>1.5652163929313227E-2</v>
+        <v>-2.6525921603450882</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B30">
-        <v>-1.8844138508418564E-2</v>
+        <v>-2.4173331012079822</v>
       </c>
       <c r="C30">
-        <v>1.1079730787710386E-2</v>
+        <v>1.8127967746842575</v>
       </c>
       <c r="D30">
-        <v>3.8558614915814352E-3</v>
+        <v>0.19646361837405343</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B31">
-        <v>7.405861491581435E-3</v>
+        <v>0.87993773212534809</v>
       </c>
       <c r="C31">
-        <v>-8.0758247678451682E-3</v>
+        <v>1.4520120524620332</v>
       </c>
       <c r="D31">
-        <v>-9.7813910098980706E-4</v>
+        <v>-1.9726224633753924</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B32">
-        <v>5.5696323573393401E-3</v>
+        <v>-2.0477066405154738</v>
       </c>
       <c r="C32">
-        <v>4.7148841548241569E-3</v>
+        <v>3.2232336035500118</v>
       </c>
       <c r="D32">
-        <v>-1.7557843117903118E-2</v>
+        <v>1.6399871208388421</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B33">
-        <v>-2.1605411828262526E-2</v>
+        <v>3.258156574618329</v>
       </c>
       <c r="C33">
-        <v>5.8491336262829294E-3</v>
+        <v>-9.934567763392059E-2</v>
       </c>
       <c r="D33">
-        <v>1.9485497262646558E-2</v>
+        <v>-1.8955796708725228E-2</v>
       </c>
       <c r="E33">
-        <v>-3.4235936464443464E-3</v>
+        <v>-3.6178691361573816</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B34">
-        <v>-2.5953896676747381E-2</v>
+        <v>-3.1518434253816716</v>
       </c>
       <c r="C34">
-        <v>5.5915578687071648E-3</v>
+        <v>4.0742906860024428</v>
       </c>
       <c r="D34">
-        <v>2.0591557868707162E-2</v>
+        <v>-0.91622852398145405</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B35">
-        <v>5.0082245353738281E-3</v>
+        <v>-1.5557070617453055</v>
       </c>
       <c r="C35">
-        <v>7.0082245353738255E-3</v>
+        <v>1.7822452314569917</v>
       </c>
       <c r="D35">
-        <v>6.3718608990101892E-3</v>
+        <v>-1.7128194330723596</v>
       </c>
       <c r="E35">
-        <v>-1.8082684555535262E-2</v>
+        <v>1.0082672274789839</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B36">
-        <v>3.5852863432659543E-3</v>
+        <v>1.0320143047142831</v>
       </c>
       <c r="C36">
-        <v>1.1589537666686968E-2</v>
+        <v>0.59309876681052487</v>
       </c>
       <c r="D36">
-        <v>-1.1865007787858485E-2</v>
+        <v>-0.23832953408246238</v>
       </c>
       <c r="E36">
-        <v>-4.0468259696766658E-3</v>
+        <v>-1.8408792371674816</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B37">
-        <v>-7.2063067937308736E-3</v>
+        <v>1.9202932075310026</v>
       </c>
       <c r="C37">
-        <v>2.4201563535556493E-3</v>
+        <v>0.30744409509335374</v>
       </c>
       <c r="D37">
-        <v>4.3292472626465578E-3</v>
+        <v>-2.1076205694359968</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B38">
-        <v>-4.5188067937308746E-3</v>
+        <v>-0.53533179246899754</v>
       </c>
       <c r="C38">
-        <v>3.0622018081011022E-3</v>
+        <v>-0.27454454127028233</v>
       </c>
       <c r="D38">
-        <v>1.2440199899192844E-3</v>
+        <v>0.70675443056400267</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B39">
-        <v>8.294997677731248E-3</v>
+        <v>-2.8889264649376747</v>
       </c>
       <c r="C39">
-        <v>-2.0843336220363533E-2</v>
+        <v>1.3114888319150664</v>
       </c>
       <c r="D39">
-        <v>1.372844213674273E-2</v>
+        <v>1.4070140215998586</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B40">
-        <v>-4.287230010080711E-3</v>
+        <v>1.3505808170425724</v>
       </c>
       <c r="C40">
-        <v>-2.8723001008071282E-4</v>
+        <v>-0.53964870793694975</v>
       </c>
       <c r="D40">
-        <v>4.8036790808283804E-3</v>
+        <v>-0.80471337246630015</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.25">
@@ -6585,13 +6638,13 @@
         <v>39</v>
       </c>
       <c r="B41">
-        <v>-1.0469048191898901E-2</v>
+        <v>0.65573233219408877</v>
       </c>
       <c r="C41">
-        <v>-3.4690481918989002E-3</v>
+        <v>0.68823007994183916</v>
       </c>
       <c r="D41">
-        <v>1.4167315444464736E-2</v>
+        <v>-1.3377436754966026</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.25">
@@ -6599,16 +6652,16 @@
         <v>40</v>
       </c>
       <c r="B42">
-        <v>6.378659405862323E-3</v>
+        <v>-0.83366869324485049</v>
       </c>
       <c r="C42">
-        <v>-1.6624717895778103E-3</v>
+        <v>-0.50263387879446075</v>
       </c>
       <c r="D42">
-        <v>-8.7533808804869002E-3</v>
+        <v>-1.6531530887783574</v>
       </c>
       <c r="E42">
-        <v>1.9953724567050718E-3</v>
+        <v>4.9048751805627617</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.25">
@@ -6616,13 +6669,13 @@
         <v>41</v>
       </c>
       <c r="B43">
-        <v>-3.2774587543040233E-3</v>
+        <v>3.1720592795325588</v>
       </c>
       <c r="C43">
-        <v>2.4097396868889898E-3</v>
+        <v>1.0448967466085046</v>
       </c>
       <c r="D43">
-        <v>1.5915578687071723E-3</v>
+        <v>-4.1828951906481189</v>
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.25">
@@ -6630,13 +6683,13 @@
         <v>42</v>
       </c>
       <c r="B44">
-        <v>-6.9646493649194183E-3</v>
+        <v>-1.8848053022145157</v>
       </c>
       <c r="C44">
-        <v>7.3989869987169379E-3</v>
+        <v>2.5731469909877802</v>
       </c>
       <c r="D44">
-        <v>-1.7162093460726391E-5</v>
+        <v>-0.75552669421726515</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.25">
@@ -6644,13 +6697,13 @@
         <v>43</v>
       </c>
       <c r="B45">
-        <v>-1.3633832967430037E-2</v>
+        <v>5.281960631836518</v>
       </c>
       <c r="C45">
-        <v>4.7610654444647455E-3</v>
+        <v>-2.765482041270285</v>
       </c>
       <c r="D45">
-        <v>8.5792472626465624E-3</v>
+        <v>-2.1478194330723626</v>
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.25">
@@ -6658,16 +6711,16 @@
         <v>44</v>
       </c>
       <c r="B46">
-        <v>1.4829049059686732E-2</v>
+        <v>-1.1939364486374826</v>
       </c>
       <c r="C46">
-        <v>-1.6898223667585994E-2</v>
+        <v>4.0903794809284504</v>
       </c>
       <c r="D46">
-        <v>-4.9778594386511122E-3</v>
+        <v>0.9823080951182398</v>
       </c>
       <c r="E46">
-        <v>6.3745036051412801E-3</v>
+        <v>-4.2208712503222845</v>
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.25">
@@ -6675,16 +6728,16 @@
         <v>45</v>
       </c>
       <c r="B47">
-        <v>-1.3604431485300496E-2</v>
+        <v>0.75292414987783085</v>
       </c>
       <c r="C47">
-        <v>1.4264567030088417E-2</v>
+        <v>1.1094915316684071</v>
       </c>
       <c r="D47">
-        <v>-4.0081602426388554E-3</v>
+        <v>0.53806323077541929</v>
       </c>
       <c r="E47">
-        <v>3.6282033937247798E-3</v>
+        <v>-2.8999410177641454</v>
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.25">
@@ -6692,16 +6745,16 @@
         <v>46</v>
       </c>
       <c r="B48">
-        <v>-4.2745450206515346E-3</v>
+        <v>1.8957252849777382</v>
       </c>
       <c r="C48">
-        <v>9.0890913429848286E-3</v>
+        <v>-1.9135951490926932</v>
       </c>
       <c r="D48">
-        <v>6.3013135784498126E-3</v>
+        <v>5.1269254290647721</v>
       </c>
       <c r="E48">
-        <v>-1.3291917258847151E-2</v>
+        <v>-6.0369535656125732</v>
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.25">
@@ -6709,13 +6762,13 @@
         <v>47</v>
       </c>
       <c r="B49">
-        <v>-1.2408442131292833E-2</v>
+        <v>2.2390656655274199</v>
       </c>
       <c r="C49">
-        <v>9.2239321840851159E-3</v>
+        <v>-4.5723143476884589</v>
       </c>
       <c r="D49">
-        <v>3.4445111769858092E-3</v>
+        <v>1.7272385952966585</v>
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.25">
@@ -6723,16 +6776,16 @@
         <v>48</v>
       </c>
       <c r="B50">
-        <v>-1.6991775464626161E-2</v>
+        <v>2.2967929382546921</v>
       </c>
       <c r="C50">
-        <v>2.0735497262646566E-2</v>
+        <v>-2.6970729503611937</v>
       </c>
       <c r="D50">
-        <v>5.5536790808283828E-3</v>
+        <v>-0.92577397852690813</v>
       </c>
       <c r="E50">
-        <v>-8.9917754646261627E-3</v>
+        <v>0.84803995475170835</v>
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.25">
@@ -6740,19 +6793,23 @@
         <v>50</v>
       </c>
       <c r="B51">
-        <v>-2.2657274178019774E-2</v>
+        <v>1.6273033276217124</v>
       </c>
       <c r="C51">
-        <v>1.3692036337606682E-2</v>
+        <v>-4.0076391385589591</v>
       </c>
       <c r="D51">
-        <v>8.873854519424863E-3</v>
+        <v>-1.9999765303610375</v>
       </c>
       <c r="E51">
-        <v>3.0120118644865614E-2</v>
+        <v>3.4310933540120696</v>
       </c>
     </row>
   </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:E51">
+    <sortCondition ref="A2:A51"/>
+  </sortState>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>